--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -5,31 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4933097-7B38-4B7D-8946-F34DFDCC3E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3BBDE-E0B4-42C2-9A40-6943914ABEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SELECT" sheetId="1" r:id="rId1"/>
+    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SELECT!$A$1:$AMJ$312</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="290">
   <si>
     <t>NUMERO</t>
   </si>
@@ -40,6 +31,9 @@
     <t>PREDIO</t>
   </si>
   <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
     <t>CEP GEOPY</t>
   </si>
   <si>
@@ -58,48 +52,857 @@
     <t>UF</t>
   </si>
   <si>
-    <t>sim</t>
-  </si>
-  <si>
-    <t>88066260</t>
-  </si>
-  <si>
-    <t>88056398</t>
-  </si>
-  <si>
-    <t>Servidão Oliveira</t>
-  </si>
-  <si>
-    <t>Cachoeira do Bom Jesus</t>
-  </si>
-  <si>
-    <t>Florianópolis</t>
-  </si>
-  <si>
-    <t>SC</t>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>-48.37881658,-27.45179655,0</t>
+  </si>
+  <si>
+    <t>88058700</t>
+  </si>
+  <si>
+    <t>88058720</t>
+  </si>
+  <si>
+    <t>-48.37878205,-27.45164422,0</t>
+  </si>
+  <si>
+    <t>-48.37875791,-27.45149724,0</t>
+  </si>
+  <si>
+    <t>367</t>
+  </si>
+  <si>
+    <t>-48.37869454,-27.45132944,0</t>
+  </si>
+  <si>
+    <t>-48.37869588,-27.45120358,0</t>
+  </si>
+  <si>
+    <t>-48.37862883,-27.45092956,0</t>
+  </si>
+  <si>
+    <t>-48.37882329,-27.45195245,0</t>
+  </si>
+  <si>
+    <t>-48.37885932068917,-27.4521325207506,0</t>
+  </si>
+  <si>
+    <t>-48.37893192,-27.45223629,0</t>
+  </si>
+  <si>
+    <t>479</t>
+  </si>
+  <si>
+    <t>-48.37894533,-27.45234489,0</t>
+  </si>
+  <si>
+    <t>88058724</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>-48.37907709,-27.45275933,0</t>
+  </si>
+  <si>
+    <t>-48.37904658,-27.45290155,0</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>-48.37908011,-27.45302532,0</t>
+  </si>
+  <si>
+    <t>-48.37915655,-27.45320264,0</t>
+  </si>
+  <si>
+    <t>-48.37919645,-27.45334426,0</t>
+  </si>
+  <si>
+    <t>-48.37862279,-27.4508052,0</t>
+  </si>
+  <si>
+    <t>-48.37857602645886,-27.45069207952894,0</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>-48.37856043000001,-27.45045025,0</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>-48.37851014,-27.45033957,0</t>
+  </si>
+  <si>
+    <t>-48.37852087,-27.45018217,0</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>-48.37851687580834,-27.4502255165206,0</t>
+  </si>
+  <si>
+    <t>-48.37846722,-27.45007417,0</t>
+  </si>
+  <si>
+    <t>-48.37844107,-27.44994743,0</t>
+  </si>
+  <si>
+    <t>-48.37842001073692,-27.44981489608158,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/N </t>
+  </si>
+  <si>
+    <t>-48.37830293999999,-27.44965228,0</t>
+  </si>
+  <si>
+    <t>-48.37814201,-27.44850589,0</t>
+  </si>
+  <si>
+    <t>88058723</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>-48.37831965689847,-27.44836873186086,0</t>
+  </si>
+  <si>
+    <t>-48.37838743,-27.44816075,0</t>
+  </si>
+  <si>
+    <t>-48.37824762,-27.44818188,0</t>
+  </si>
+  <si>
+    <t>88058722</t>
+  </si>
+  <si>
+    <t>-48.37811049,-27.448203,0</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>-48.37796565,-27.44823811,0</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>-48.37779365,-27.44825358,0</t>
   </si>
   <si>
     <t>95</t>
   </si>
   <si>
-    <t>lv</t>
+    <t>-48.37754153,-27.44826667,0</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>-48.37732092,-27.44830386,0</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>-48.37717038,-27.4483357,0</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>-48.37694003999999,-27.44835415,0</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>-48.37671204999999,-27.44838093,0</t>
+  </si>
+  <si>
+    <t>-48.37638013,-27.44857105,0</t>
+  </si>
+  <si>
+    <t>-48.37657050854732,-27.44857776686061,0</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>-48.37669965,-27.44857878,0</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>-48.37686762,-27.44856004,0</t>
+  </si>
+  <si>
+    <t>-48.37717809,-27.44850529,0</t>
+  </si>
+  <si>
+    <t>-48.37739401000001,-27.44848893,0</t>
+  </si>
+  <si>
+    <t>-48.37761125999999,-27.4484678,0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>-48.37793648,-27.44840205,0</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>-48.37811317,-27.44837497,0</t>
+  </si>
+  <si>
+    <t>-48.37832306,-27.4483113,0</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>-48.3767144,-27.44871446000001,0</t>
+  </si>
+  <si>
+    <t>-48.37696552,-27.44866685,0</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>-48.37715294,-27.44864275,0</t>
+  </si>
+  <si>
+    <t>-48.37739869999999,-27.448613,0</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>-48.37751035,-27.44859693,0</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>-48.3775945,-27.44856659,0</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>-48.37768503000001,-27.44855706,0</t>
+  </si>
+  <si>
+    <t>-48.3777561,-27.44855915,0</t>
+  </si>
+  <si>
+    <t>-48.37782047999999,-27.44854903,0</t>
+  </si>
+  <si>
+    <t>-48.37789389999999,-27.44853415,0</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>-48.37623864,-27.44898164,0</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>-48.37636538,-27.44899979,0</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>-48.37650083,-27.4489983,0</t>
+  </si>
+  <si>
+    <t>88058457</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>-48.37666512,-27.44897956,0</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>-48.37677676,-27.44896766,0</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>-48.37703191000001,-27.44893969,0</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>-48.37716802999999,-27.44886293,0</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>-48.37729342,-27.44888316,0</t>
+  </si>
+  <si>
+    <t>-48.37771956,-27.4504193,0</t>
+  </si>
+  <si>
+    <t>88058725</t>
+  </si>
+  <si>
+    <t>-48.37769005,-27.45028542,0</t>
+  </si>
+  <si>
+    <t>88058733</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>-48.37770045000001,-27.4500706,0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>-48.37910526,-27.45188313,0</t>
+  </si>
+  <si>
+    <t>450</t>
+  </si>
+  <si>
+    <t>-48.37915089762442,-27.45193850135754,0</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>-48.37917298,-27.45216161,0</t>
+  </si>
+  <si>
+    <t>476</t>
+  </si>
+  <si>
+    <t>-48.37920584,-27.4522348,0</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>-48.37925412,-27.45243652,0</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>-48.37926216,-27.45253679,0</t>
+  </si>
+  <si>
+    <t>-48.37927825999999,-27.45266264,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sn </t>
+  </si>
+  <si>
+    <t>-48.37932419,-27.45282568,0</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>-48.37936771988549,-27.45286320298741,0</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>-48.37940533,-27.45298188,0</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>-48.37942846000001,-27.45305894,0</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>-48.37948613,-27.45320264,0</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>-48.3789859,-27.4526317,0</t>
+  </si>
+  <si>
+    <t>-48.37872874,-27.45258975,0</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>-48.37850545000001,-27.45255583,0</t>
+  </si>
+  <si>
+    <t>-48.37826237,-27.45173705,0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>-48.37778158,-27.4516579,0</t>
+  </si>
+  <si>
+    <t>88058746</t>
+  </si>
+  <si>
+    <t>-48.37761462160369,-27.45149916104785,0</t>
+  </si>
+  <si>
+    <t>88058000</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>-48.37742747247494,-27.45153793357861,0</t>
+  </si>
+  <si>
+    <t>-48.37731153,-27.45174002,0</t>
+  </si>
+  <si>
+    <t>88058739</t>
+  </si>
+  <si>
+    <t>-48.37715764000001,-27.45179655,0</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>-48.37702855,-27.45182422,0</t>
+  </si>
+  <si>
+    <t>-48.3768693,-27.45183285,0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>-48.37666243000001,-27.45185278,0</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>-48.37815978,-27.45142435,0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-48.37753449,-27.45133271,0</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>-48.37733533,-27.45139132,0</t>
+  </si>
+  <si>
+    <t>-48.37681859255152,-27.4514387619247,0</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>-48.37651424,-27.45155139,0</t>
+  </si>
+  <si>
+    <t>-48.37790061,-27.45147433,0</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>-48.37814435,-27.45122144,0</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>-48.37798778,-27.45097657,0</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>-48.37799214,-27.45088345,0</t>
+  </si>
+  <si>
+    <t>-48.37790161,-27.45053445,0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>-48.37793916,-27.45038063,0</t>
+  </si>
+  <si>
+    <t>-48.377853,-27.45014082,0</t>
+  </si>
+  <si>
+    <t>-48.37772926433586,-27.45056738426266,0</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>-48.37752812,-27.45061537,0</t>
+  </si>
+  <si>
+    <t>-48.37736685,-27.45061032,0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-48.37699201,-27.45069779,0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-48.37678682,-27.45070463,0</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>-48.37663292999999,-27.45072873,0</t>
+  </si>
+  <si>
+    <t>-48.37648607999999,-27.45077485,0</t>
+  </si>
+  <si>
+    <t>-48.37700776999999,-27.45108517,0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-48.37672077,-27.45111581,0</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>-48.37799717,-27.45071921,0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>-48.37818794,-27.45065971,0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>-48.37834418,-27.45063144,0</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>-48.37877534,-27.45052344,0</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>-48.3787455,-27.45038003000001,0</t>
+  </si>
+  <si>
+    <t>-48.37874103666672,-27.45027563758167,0</t>
+  </si>
+  <si>
+    <t>-48.37867107000001,-27.45012712999999,0</t>
+  </si>
+  <si>
+    <t>-48.37862179,-27.44996766,0</t>
+  </si>
+  <si>
+    <t>-48.37861039,-27.44980193,0</t>
+  </si>
+  <si>
+    <t>-48.37752242,-27.44954755,0</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>-48.3773293,-27.44976355,0</t>
+  </si>
+  <si>
+    <t>-48.37713115,-27.44977188,0</t>
+  </si>
+  <si>
+    <t>-48.3766621,-27.44988137,0</t>
+  </si>
+  <si>
+    <t>-48.37683074,-27.44982395,0</t>
+  </si>
+  <si>
+    <t>-48.37708153000001,-27.45016938,0</t>
+  </si>
+  <si>
+    <t>-48.37713593241524,-27.45064881771335,0</t>
+  </si>
+  <si>
+    <t>-48.37690048,-27.45021609,0</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>-48.37672547,-27.45025923,0</t>
+  </si>
+  <si>
+    <t>-48.37843135,-27.44923127,0</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>-48.37844409,-27.44871505,0</t>
+  </si>
+  <si>
+    <t>-48.37881188999999,-27.45067012,0</t>
+  </si>
+  <si>
+    <t>88058741</t>
+  </si>
+  <si>
+    <t>-48.37888163,-27.45091528,0</t>
+  </si>
+  <si>
+    <t>-48.37893762,-27.45113426,0</t>
+  </si>
+  <si>
+    <t>-48.3789812,-27.45136782000001,0</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>-48.37899059000001,-27.45148266,0</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>-48.37900870000001,-27.45157281,0</t>
+  </si>
+  <si>
+    <t>-48.37907441000001,-27.4517061,0</t>
+  </si>
+  <si>
+    <t>-48.37822381,-27.45291523,0</t>
+  </si>
+  <si>
+    <t>Tem que usar o CEP padrão</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>-48.37659605,-27.45098431,0</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>-48.37642841,-27.45099442,0</t>
+  </si>
+  <si>
+    <t>-48.37674793,-27.45093313,0</t>
+  </si>
+  <si>
+    <t>-48.376932,-27.45089683,0</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>-48.37737657,-27.45088821,0</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>-48.37754755999999,-27.45082721,0</t>
+  </si>
+  <si>
+    <t>-48.37774068,-27.45081144,0</t>
+  </si>
+  <si>
+    <t>-48.37779269156447,-27.45129610709144,0</t>
+  </si>
+  <si>
+    <t>-48.37733734,-27.45047851,0</t>
+  </si>
+  <si>
+    <t>-48.3773246,-27.45036902,0</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>-48.37730146999999,-27.45025239,0</t>
+  </si>
+  <si>
+    <t>-48.37723350877318,-27.45000972344396,0</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>-48.37738395,-27.44995754,0</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>-48.37769777,-27.44986917,0</t>
+  </si>
+  <si>
+    <t>-48.37805308505286,-27.44976348327336,0</t>
+  </si>
+  <si>
+    <t>-48.37693401,-27.45048655,0</t>
+  </si>
+  <si>
+    <t>-48.37664198,-27.45054873,0</t>
+  </si>
+  <si>
+    <t>-48.37702487,-27.45001972,0</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>-48.37687634,-27.45003787,0</t>
+  </si>
+  <si>
+    <t>-48.37669395000001,-27.45007774,0</t>
+  </si>
+  <si>
+    <t>-48.37652396,-27.44955826,0</t>
+  </si>
+  <si>
+    <t>88058732</t>
+  </si>
+  <si>
+    <t>-48.37666411,-27.44950887,0</t>
+  </si>
+  <si>
+    <t>-48.37693937,-27.44948804,0</t>
+  </si>
+  <si>
+    <t>-48.37705333073936,-27.44946730695136,0</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>-48.37716964558384,-27.44944109009478,0</t>
+  </si>
+  <si>
+    <t>-48.37728638000001,-27.44945323,0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>-48.37720491,-27.44922205,0</t>
+  </si>
+  <si>
+    <t>-48.37733399,-27.44920777,0</t>
+  </si>
+  <si>
+    <t>-48.37705605,-27.44922324,0</t>
+  </si>
+  <si>
+    <t>-48.37683879,-27.44924645,0</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>-48.37670568,-27.44927531,0</t>
+  </si>
+  <si>
+    <t>-48.37657358,-27.44928959,0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>-48.37826304,-27.45048893,0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>-48.37813564,-27.45049369,0</t>
+  </si>
+  <si>
+    <t>-48.37802064000001,-27.45054575,0</t>
+  </si>
+  <si>
+    <t>-48.37676861110523,-27.45051971235656,0</t>
+  </si>
+  <si>
+    <t>-48.37708834595168,-27.45045706804933,0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -122,10 +925,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,6 +1019,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,6 +1054,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -286,20 +1089,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -421,41 +1220,80 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K296"/>
+  <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="1024" width="15" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -479,112 +1317,3230 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-48.508803139999998</v>
+        <v>417</v>
       </c>
       <c r="B2">
-        <v>-27.758743939999999</v>
-      </c>
-      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>405</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>389</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>355</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>337</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>437</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>449</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>467</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>539</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>577</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>595</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>319</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>299</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>227</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>174</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>215</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>195</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>555</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>555</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E35" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>206</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>194</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>128</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>115</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>77</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>18</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>135</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>75</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+      <c r="E52" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>97</v>
+      </c>
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E59" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
         <v>103</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>-48.508803139999998</v>
-      </c>
-      <c r="B3">
-        <v>-27.758743939999999</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
+      <c r="E61" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>106</v>
+      </c>
+      <c r="E62" t="s">
+        <v>25</v>
+      </c>
+      <c r="F62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E63" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>110</v>
+      </c>
+      <c r="E64" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>111</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" t="s">
+        <v>25</v>
+      </c>
+      <c r="F66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>200</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>117</v>
+      </c>
+      <c r="E68" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>119</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>120</v>
+      </c>
+      <c r="E69" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>122</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>126</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>510</v>
+      </c>
+      <c r="B76">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>-48.508803139999998</v>
-      </c>
-      <c r="B4">
-        <v>-27.758743939999999</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4">
-        <v>75</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G296" s="2"/>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>138</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>145</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>146</v>
+      </c>
+      <c r="E83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F83" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>148</v>
+      </c>
+      <c r="E84" t="s">
+        <v>25</v>
+      </c>
+      <c r="F84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>115</v>
+      </c>
+      <c r="B85">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>149</v>
+      </c>
+      <c r="E85" t="s">
+        <v>25</v>
+      </c>
+      <c r="F85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>151</v>
+      </c>
+      <c r="E86" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>153</v>
+      </c>
+      <c r="E87" t="s">
+        <v>25</v>
+      </c>
+      <c r="F87" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>156</v>
+      </c>
+      <c r="E88" t="s">
+        <v>25</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>157</v>
+      </c>
+      <c r="E89" t="s">
+        <v>25</v>
+      </c>
+      <c r="F89" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>161</v>
+      </c>
+      <c r="E91" t="s">
+        <v>25</v>
+      </c>
+      <c r="F91" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" t="s">
+        <v>25</v>
+      </c>
+      <c r="F92" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>163</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>164</v>
+      </c>
+      <c r="E93" t="s">
+        <v>25</v>
+      </c>
+      <c r="F93" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>165</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>166</v>
+      </c>
+      <c r="E94" t="s">
+        <v>25</v>
+      </c>
+      <c r="F94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>168</v>
+      </c>
+      <c r="E95" t="s">
+        <v>25</v>
+      </c>
+      <c r="F95" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>170</v>
+      </c>
+      <c r="E96" t="s">
+        <v>25</v>
+      </c>
+      <c r="F96" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>147</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" t="s">
+        <v>25</v>
+      </c>
+      <c r="F97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>172</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" t="s">
+        <v>25</v>
+      </c>
+      <c r="F98" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>174</v>
+      </c>
+      <c r="E99" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>176</v>
+      </c>
+      <c r="E100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>177</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>178</v>
+      </c>
+      <c r="E101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>179</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>180</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+      <c r="F102" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>71</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>181</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>182</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>183</v>
+      </c>
+      <c r="E104" t="s">
+        <v>25</v>
+      </c>
+      <c r="F104" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>184</v>
+      </c>
+      <c r="E105" t="s">
+        <v>25</v>
+      </c>
+      <c r="F105" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>85</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>185</v>
+      </c>
+      <c r="E106" t="s">
+        <v>25</v>
+      </c>
+      <c r="F106" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>187</v>
+      </c>
+      <c r="E107" t="s">
+        <v>25</v>
+      </c>
+      <c r="F107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>133</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>188</v>
+      </c>
+      <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>190</v>
+      </c>
+      <c r="E109" t="s">
+        <v>25</v>
+      </c>
+      <c r="F109" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>192</v>
+      </c>
+      <c r="E110" t="s">
+        <v>25</v>
+      </c>
+      <c r="F110" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>194</v>
+      </c>
+      <c r="E111" t="s">
+        <v>25</v>
+      </c>
+      <c r="F111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>119</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>195</v>
+      </c>
+      <c r="E112" t="s">
+        <v>25</v>
+      </c>
+      <c r="F112" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>180</v>
+      </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>196</v>
+      </c>
+      <c r="E113" t="s">
+        <v>25</v>
+      </c>
+      <c r="F113" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>199</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>200</v>
+      </c>
+      <c r="E115" t="s">
+        <v>25</v>
+      </c>
+      <c r="F115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>202</v>
+      </c>
+      <c r="E116" t="s">
+        <v>25</v>
+      </c>
+      <c r="F116" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>204</v>
+      </c>
+      <c r="E117" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>206</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>208</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>254</v>
+      </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>209</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>93</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>210</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>216</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>211</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>200</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>212</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>73</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>214</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>215</v>
+      </c>
+      <c r="E125" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>163</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>216</v>
+      </c>
+      <c r="E126" t="s">
+        <v>25</v>
+      </c>
+      <c r="F126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>135</v>
+      </c>
+      <c r="B127">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>217</v>
+      </c>
+      <c r="E127" t="s">
+        <v>25</v>
+      </c>
+      <c r="F127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>218</v>
+      </c>
+      <c r="E128" t="s">
+        <v>25</v>
+      </c>
+      <c r="F128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>77</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>219</v>
+      </c>
+      <c r="E129" t="s">
+        <v>25</v>
+      </c>
+      <c r="F129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>153</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>220</v>
+      </c>
+      <c r="E130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>150</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>221</v>
+      </c>
+      <c r="E131" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>222</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>223</v>
+      </c>
+      <c r="E132" t="s">
+        <v>25</v>
+      </c>
+      <c r="F132" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>29</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>225</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>226</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>306</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>227</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>338</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>229</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>352</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>230</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>376</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>231</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>233</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>235</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>410</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>45</v>
+      </c>
+      <c r="B142">
+        <v>20</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>237</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>239</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>240</v>
+      </c>
+      <c r="E143" t="s">
+        <v>25</v>
+      </c>
+      <c r="F143" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>241</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>242</v>
+      </c>
+      <c r="E144" t="s">
+        <v>25</v>
+      </c>
+      <c r="F144" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>243</v>
+      </c>
+      <c r="E145" t="s">
+        <v>25</v>
+      </c>
+      <c r="F145" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>244</v>
+      </c>
+      <c r="E146" t="s">
+        <v>25</v>
+      </c>
+      <c r="F146" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147">
+        <v>3</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>246</v>
+      </c>
+      <c r="E147" t="s">
+        <v>25</v>
+      </c>
+      <c r="F147" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>248</v>
+      </c>
+      <c r="E148" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>121</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>249</v>
+      </c>
+      <c r="E149" t="s">
+        <v>25</v>
+      </c>
+      <c r="F149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>27</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>250</v>
+      </c>
+      <c r="E150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>133</v>
+      </c>
+      <c r="B151">
+        <v>6</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>251</v>
+      </c>
+      <c r="E151" t="s">
+        <v>25</v>
+      </c>
+      <c r="F151" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>214</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>252</v>
+      </c>
+      <c r="E152" t="s">
+        <v>25</v>
+      </c>
+      <c r="F152" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>254</v>
+      </c>
+      <c r="E153" t="s">
+        <v>25</v>
+      </c>
+      <c r="F153" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>76</v>
+      </c>
+      <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>255</v>
+      </c>
+      <c r="E154" t="s">
+        <v>25</v>
+      </c>
+      <c r="F154" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>256</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>257</v>
+      </c>
+      <c r="E155" t="s">
+        <v>25</v>
+      </c>
+      <c r="F155" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>259</v>
+      </c>
+      <c r="E156" t="s">
+        <v>25</v>
+      </c>
+      <c r="F156" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>34</v>
+      </c>
+      <c r="B157">
+        <v>6</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>260</v>
+      </c>
+      <c r="E157" t="s">
+        <v>25</v>
+      </c>
+      <c r="F157" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>230</v>
+      </c>
+      <c r="B158">
+        <v>8</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>261</v>
+      </c>
+      <c r="E158" t="s">
+        <v>25</v>
+      </c>
+      <c r="F158" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>262</v>
+      </c>
+      <c r="E159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>127</v>
+      </c>
+      <c r="B160">
+        <v>4</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="s">
+        <v>263</v>
+      </c>
+      <c r="E160" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>264</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="s">
+        <v>265</v>
+      </c>
+      <c r="E161" t="s">
+        <v>25</v>
+      </c>
+      <c r="F161" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>132</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="s">
+        <v>266</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+      <c r="F162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>59</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="s">
+        <v>267</v>
+      </c>
+      <c r="E163" t="s">
+        <v>25</v>
+      </c>
+      <c r="F163" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>163</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="s">
+        <v>269</v>
+      </c>
+      <c r="E164" t="s">
+        <v>25</v>
+      </c>
+      <c r="F164" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>247</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="s">
+        <v>270</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>90</v>
+      </c>
+      <c r="B166">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>271</v>
+      </c>
+      <c r="E166" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="s">
+        <v>273</v>
+      </c>
+      <c r="E167" t="s">
+        <v>25</v>
+      </c>
+      <c r="F167" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>74</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="s">
+        <v>274</v>
+      </c>
+      <c r="E168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>275</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="s">
+        <v>276</v>
+      </c>
+      <c r="E169" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>73</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="s">
+        <v>277</v>
+      </c>
+      <c r="E170" t="s">
+        <v>25</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>93</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="s">
+        <v>278</v>
+      </c>
+      <c r="E171" t="s">
+        <v>25</v>
+      </c>
+      <c r="F171" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="s">
+        <v>279</v>
+      </c>
+      <c r="E172" t="s">
+        <v>25</v>
+      </c>
+      <c r="F172" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>280</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="s">
+        <v>281</v>
+      </c>
+      <c r="E173" t="s">
+        <v>25</v>
+      </c>
+      <c r="F173" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>115</v>
+      </c>
+      <c r="B174">
+        <v>8</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="s">
+        <v>282</v>
+      </c>
+      <c r="E174" t="s">
+        <v>25</v>
+      </c>
+      <c r="F174" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>283</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="s">
+        <v>284</v>
+      </c>
+      <c r="E175" t="s">
+        <v>25</v>
+      </c>
+      <c r="F175" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>285</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>286</v>
+      </c>
+      <c r="E176" t="s">
+        <v>25</v>
+      </c>
+      <c r="F176" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>61</v>
+      </c>
+      <c r="B177">
+        <v>2</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>287</v>
+      </c>
+      <c r="E177" t="s">
+        <v>25</v>
+      </c>
+      <c r="F177" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>93</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="s">
+        <v>288</v>
+      </c>
+      <c r="E178" t="s">
+        <v>25</v>
+      </c>
+      <c r="F178" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>93</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="s">
+        <v>289</v>
+      </c>
+      <c r="E179" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AMJ312" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3BBDE-E0B4-42C2-9A40-6943914ABEB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42360A9-0766-4C62-AD38-A6B5C411AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Sheet'!$A$1:$J$179</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="210">
   <si>
     <t>NUMERO</t>
   </si>
@@ -52,9 +56,6 @@
     <t>UF</t>
   </si>
   <si>
-    <t>Point</t>
-  </si>
-  <si>
     <t>-48.37881658,-27.45179655,0</t>
   </si>
   <si>
@@ -70,9 +71,6 @@
     <t>-48.37875791,-27.45149724,0</t>
   </si>
   <si>
-    <t>367</t>
-  </si>
-  <si>
     <t>-48.37869454,-27.45132944,0</t>
   </si>
   <si>
@@ -91,27 +89,18 @@
     <t>-48.37893192,-27.45223629,0</t>
   </si>
   <si>
-    <t>479</t>
-  </si>
-  <si>
     <t>-48.37894533,-27.45234489,0</t>
   </si>
   <si>
     <t>88058724</t>
   </si>
   <si>
-    <t>512</t>
-  </si>
-  <si>
     <t>-48.37907709,-27.45275933,0</t>
   </si>
   <si>
     <t>-48.37904658,-27.45290155,0</t>
   </si>
   <si>
-    <t>567</t>
-  </si>
-  <si>
     <t>-48.37908011,-27.45302532,0</t>
   </si>
   <si>
@@ -127,24 +116,15 @@
     <t>-48.37857602645886,-27.45069207952894,0</t>
   </si>
   <si>
-    <t>277</t>
-  </si>
-  <si>
     <t>-48.37856043000001,-27.45045025,0</t>
   </si>
   <si>
-    <t>255</t>
-  </si>
-  <si>
     <t>-48.37851014,-27.45033957,0</t>
   </si>
   <si>
     <t>-48.37852087,-27.45018217,0</t>
   </si>
   <si>
-    <t>249</t>
-  </si>
-  <si>
     <t>-48.37851687580834,-27.4502255165206,0</t>
   </si>
   <si>
@@ -157,9 +137,6 @@
     <t>-48.37842001073692,-27.44981489608158,0</t>
   </si>
   <si>
-    <t xml:space="preserve">S/N </t>
-  </si>
-  <si>
     <t>-48.37830293999999,-27.44965228,0</t>
   </si>
   <si>
@@ -169,9 +146,6 @@
     <t>88058723</t>
   </si>
   <si>
-    <t>41</t>
-  </si>
-  <si>
     <t>-48.37831965689847,-27.44836873186086,0</t>
   </si>
   <si>
@@ -187,45 +161,24 @@
     <t>-48.37811049,-27.448203,0</t>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>-48.37796565,-27.44823811,0</t>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <t>-48.37779365,-27.44825358,0</t>
   </si>
   <si>
-    <t>95</t>
-  </si>
-  <si>
     <t>-48.37754153,-27.44826667,0</t>
   </si>
   <si>
-    <t>115</t>
-  </si>
-  <si>
     <t>-48.37732092,-27.44830386,0</t>
   </si>
   <si>
-    <t>129</t>
-  </si>
-  <si>
     <t>-48.37717038,-27.4483357,0</t>
   </si>
   <si>
-    <t>149</t>
-  </si>
-  <si>
     <t>-48.37694003999999,-27.44835415,0</t>
   </si>
   <si>
-    <t>181</t>
-  </si>
-  <si>
     <t>-48.37671204999999,-27.44838093,0</t>
   </si>
   <si>
@@ -235,15 +188,9 @@
     <t>-48.37657050854732,-27.44857776686061,0</t>
   </si>
   <si>
-    <t>178</t>
-  </si>
-  <si>
     <t>-48.37669965,-27.44857878,0</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>-48.37686762,-27.44856004,0</t>
   </si>
   <si>
@@ -256,48 +203,30 @@
     <t>-48.37761125999999,-27.4484678,0</t>
   </si>
   <si>
-    <t>44</t>
-  </si>
-  <si>
     <t>-48.37793648,-27.44840205,0</t>
   </si>
   <si>
-    <t>38</t>
-  </si>
-  <si>
     <t>-48.37811317,-27.44837497,0</t>
   </si>
   <si>
     <t>-48.37832306,-27.4483113,0</t>
   </si>
   <si>
-    <t>161</t>
-  </si>
-  <si>
     <t>-48.3767144,-27.44871446000001,0</t>
   </si>
   <si>
     <t>-48.37696552,-27.44866685,0</t>
   </si>
   <si>
-    <t>117</t>
-  </si>
-  <si>
     <t>-48.37715294,-27.44864275,0</t>
   </si>
   <si>
     <t>-48.37739869999999,-27.448613,0</t>
   </si>
   <si>
-    <t>73</t>
-  </si>
-  <si>
     <t>-48.37751035,-27.44859693,0</t>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <t>-48.3775945,-27.44856659,0</t>
   </si>
   <si>
@@ -316,54 +245,30 @@
     <t>-48.37789389999999,-27.44853415,0</t>
   </si>
   <si>
-    <t>208</t>
-  </si>
-  <si>
     <t>-48.37623864,-27.44898164,0</t>
   </si>
   <si>
-    <t>198</t>
-  </si>
-  <si>
     <t>-48.37636538,-27.44899979,0</t>
   </si>
   <si>
-    <t>180</t>
-  </si>
-  <si>
     <t>-48.37650083,-27.4489983,0</t>
   </si>
   <si>
     <t>88058457</t>
   </si>
   <si>
-    <t>164</t>
-  </si>
-  <si>
     <t>-48.37666512,-27.44897956,0</t>
   </si>
   <si>
-    <t>166</t>
-  </si>
-  <si>
     <t>-48.37677676,-27.44896766,0</t>
   </si>
   <si>
-    <t>132</t>
-  </si>
-  <si>
     <t>-48.37703191000001,-27.44893969,0</t>
   </si>
   <si>
-    <t>112</t>
-  </si>
-  <si>
     <t>-48.37716802999999,-27.44886293,0</t>
   </si>
   <si>
-    <t>92</t>
-  </si>
-  <si>
     <t>-48.37729342,-27.44888316,0</t>
   </si>
   <si>
@@ -379,45 +284,24 @@
     <t>88058733</t>
   </si>
   <si>
-    <t>227</t>
-  </si>
-  <si>
     <t>-48.37770045000001,-27.4500706,0</t>
   </si>
   <si>
-    <t>94</t>
-  </si>
-  <si>
     <t>-48.37910526,-27.45188313,0</t>
   </si>
   <si>
-    <t>450</t>
-  </si>
-  <si>
     <t>-48.37915089762442,-27.45193850135754,0</t>
   </si>
   <si>
-    <t>464</t>
-  </si>
-  <si>
     <t>-48.37917298,-27.45216161,0</t>
   </si>
   <si>
-    <t>476</t>
-  </si>
-  <si>
     <t>-48.37920584,-27.4522348,0</t>
   </si>
   <si>
-    <t>496</t>
-  </si>
-  <si>
     <t>-48.37925412,-27.45243652,0</t>
   </si>
   <si>
-    <t>506</t>
-  </si>
-  <si>
     <t>-48.37926216,-27.45253679,0</t>
   </si>
   <si>
@@ -430,9 +314,6 @@
     <t>-48.37932419,-27.45282568,0</t>
   </si>
   <si>
-    <t>543</t>
-  </si>
-  <si>
     <t>-48.37936771988549,-27.45286320298741,0</t>
   </si>
   <si>
@@ -442,21 +323,12 @@
     <t>-48.37940533,-27.45298188,0</t>
   </si>
   <si>
-    <t>560</t>
-  </si>
-  <si>
     <t>-48.37942846000001,-27.45305894,0</t>
   </si>
   <si>
-    <t>624</t>
-  </si>
-  <si>
     <t>-48.37948613,-27.45320264,0</t>
   </si>
   <si>
-    <t>511</t>
-  </si>
-  <si>
     <t>-48.3789859,-27.4526317,0</t>
   </si>
   <si>
@@ -472,9 +344,6 @@
     <t>-48.37826237,-27.45173705,0</t>
   </si>
   <si>
-    <t>39</t>
-  </si>
-  <si>
     <t>-48.37778158,-27.4516579,0</t>
   </si>
   <si>
@@ -487,9 +356,6 @@
     <t>88058000</t>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <t>-48.37742747247494,-27.45153793357861,0</t>
   </si>
   <si>
@@ -502,75 +368,45 @@
     <t>-48.37715764000001,-27.45179655,0</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
     <t>-48.37702855,-27.45182422,0</t>
   </si>
   <si>
     <t>-48.3768693,-27.45183285,0</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>-48.37666243000001,-27.45185278,0</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>-48.37815978,-27.45142435,0</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
     <t>-48.37753449,-27.45133271,0</t>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <t>-48.37733533,-27.45139132,0</t>
   </si>
   <si>
     <t>-48.37681859255152,-27.4514387619247,0</t>
   </si>
   <si>
-    <t>155</t>
-  </si>
-  <si>
     <t>-48.37651424,-27.45155139,0</t>
   </si>
   <si>
     <t>-48.37790061,-27.45147433,0</t>
   </si>
   <si>
-    <t>145</t>
-  </si>
-  <si>
     <t>-48.37814435,-27.45122144,0</t>
   </si>
   <si>
-    <t>175</t>
-  </si>
-  <si>
     <t>-48.37798778,-27.45097657,0</t>
   </si>
   <si>
-    <t>179</t>
-  </si>
-  <si>
     <t>-48.37799214,-27.45088345,0</t>
   </si>
   <si>
     <t>-48.37790161,-27.45053445,0</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <t>-48.37793916,-27.45038063,0</t>
   </si>
   <si>
@@ -580,30 +416,18 @@
     <t>-48.37772926433586,-27.45056738426266,0</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
     <t>-48.37752812,-27.45061537,0</t>
   </si>
   <si>
     <t>-48.37736685,-27.45061032,0</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>-48.37699201,-27.45069779,0</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>-48.37678682,-27.45070463,0</t>
   </si>
   <si>
-    <t>207</t>
-  </si>
-  <si>
     <t>-48.37663292999999,-27.45072873,0</t>
   </si>
   <si>
@@ -613,39 +437,21 @@
     <t>-48.37700776999999,-27.45108517,0</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>-48.37672077,-27.45111581,0</t>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <t>-48.37799717,-27.45071921,0</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
     <t>-48.37818794,-27.45065971,0</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>-48.37834418,-27.45063144,0</t>
   </si>
   <si>
-    <t>290</t>
-  </si>
-  <si>
     <t>-48.37877534,-27.45052344,0</t>
   </si>
   <si>
-    <t>278</t>
-  </si>
-  <si>
     <t>-48.3787455,-27.45038003000001,0</t>
   </si>
   <si>
@@ -664,9 +470,6 @@
     <t>-48.37752242,-27.44954755,0</t>
   </si>
   <si>
-    <t>79</t>
-  </si>
-  <si>
     <t>-48.3773293,-27.44976355,0</t>
   </si>
   <si>
@@ -688,18 +491,12 @@
     <t>-48.37690048,-27.45021609,0</t>
   </si>
   <si>
-    <t>240</t>
-  </si>
-  <si>
     <t>-48.37672547,-27.45025923,0</t>
   </si>
   <si>
     <t>-48.37843135,-27.44923127,0</t>
   </si>
   <si>
-    <t>623</t>
-  </si>
-  <si>
     <t>-48.37844409,-27.44871505,0</t>
   </si>
   <si>
@@ -718,15 +515,9 @@
     <t>-48.3789812,-27.45136782000001,0</t>
   </si>
   <si>
-    <t>378</t>
-  </si>
-  <si>
     <t>-48.37899059000001,-27.45148266,0</t>
   </si>
   <si>
-    <t>398</t>
-  </si>
-  <si>
     <t>-48.37900870000001,-27.45157281,0</t>
   </si>
   <si>
@@ -739,15 +530,9 @@
     <t>Tem que usar o CEP padrão</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
     <t>-48.37659605,-27.45098431,0</t>
   </si>
   <si>
-    <t>228</t>
-  </si>
-  <si>
     <t>-48.37642841,-27.45099442,0</t>
   </si>
   <si>
@@ -757,15 +542,9 @@
     <t>-48.376932,-27.45089683,0</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>-48.37737657,-27.45088821,0</t>
   </si>
   <si>
-    <t>116</t>
-  </si>
-  <si>
     <t>-48.37754755999999,-27.45082721,0</t>
   </si>
   <si>
@@ -781,24 +560,15 @@
     <t>-48.3773246,-27.45036902,0</t>
   </si>
   <si>
-    <t>78</t>
-  </si>
-  <si>
     <t>-48.37730146999999,-27.45025239,0</t>
   </si>
   <si>
     <t>-48.37723350877318,-27.45000972344396,0</t>
   </si>
   <si>
-    <t>74</t>
-  </si>
-  <si>
     <t>-48.37738395,-27.44995754,0</t>
   </si>
   <si>
-    <t>72</t>
-  </si>
-  <si>
     <t>-48.37769777,-27.44986917,0</t>
   </si>
   <si>
@@ -814,9 +584,6 @@
     <t>-48.37702487,-27.45001972,0</t>
   </si>
   <si>
-    <t>130</t>
-  </si>
-  <si>
     <t>-48.37687634,-27.45003787,0</t>
   </si>
   <si>
@@ -838,18 +605,12 @@
     <t>-48.37705333073936,-27.44946730695136,0</t>
   </si>
   <si>
-    <t>88</t>
-  </si>
-  <si>
     <t>-48.37716964558384,-27.44944109009478,0</t>
   </si>
   <si>
     <t>-48.37728638000001,-27.44945323,0</t>
   </si>
   <si>
-    <t>77</t>
-  </si>
-  <si>
     <t>-48.37720491,-27.44922205,0</t>
   </si>
   <si>
@@ -862,24 +623,15 @@
     <t>-48.37683879,-27.44924645,0</t>
   </si>
   <si>
-    <t>101</t>
-  </si>
-  <si>
     <t>-48.37670568,-27.44927531,0</t>
   </si>
   <si>
     <t>-48.37657358,-27.44928959,0</t>
   </si>
   <si>
-    <t>27</t>
-  </si>
-  <si>
     <t>-48.37826304,-27.45048893,0</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>-48.37813564,-27.45049369,0</t>
   </si>
   <si>
@@ -890,6 +642,18 @@
   </si>
   <si>
     <t>-48.37708834595168,-27.45045706804933,0</t>
+  </si>
+  <si>
+    <t>sn</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>337+7:170</t>
   </si>
 </sst>
 </file>
@@ -925,8 +689,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1268,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="D186" sqref="D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1322,40 +1087,31 @@
       <c r="A2">
         <v>417</v>
       </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>405</v>
+      <c r="A3" t="s">
+        <v>206</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1365,34 +1121,28 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1400,39 +1150,36 @@
         <v>355</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>337</v>
+      <c r="A7" t="s">
+        <v>209</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1442,17 +1189,14 @@
       <c r="B8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1462,17 +1206,14 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1482,51 +1223,42 @@
       <c r="B10">
         <v>2</v>
       </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11">
+        <v>479</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>512</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1536,34 +1268,28 @@
       <c r="B13">
         <v>6</v>
       </c>
-      <c r="C13" t="s">
-        <v>10</v>
-      </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
+      <c r="A14">
+        <v>567</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1573,17 +1299,14 @@
       <c r="B15">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1593,17 +1316,14 @@
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
-        <v>10</v>
-      </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,17 +1333,14 @@
       <c r="B17">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
-        <v>10</v>
-      </c>
       <c r="D17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1633,51 +1350,42 @@
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
-        <v>10</v>
-      </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>10</v>
+      <c r="A19">
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
+      <c r="A20">
+        <v>255</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1687,34 +1395,28 @@
       <c r="B21">
         <v>3</v>
       </c>
-      <c r="C21" t="s">
-        <v>10</v>
-      </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" t="s">
-        <v>10</v>
+      <c r="A22">
+        <v>249</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1724,17 +1426,14 @@
       <c r="B23">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
-        <v>10</v>
-      </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,17 +1443,14 @@
       <c r="B24">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
-        <v>10</v>
-      </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1764,37 +1460,31 @@
       <c r="B25">
         <v>6</v>
       </c>
-      <c r="C25" t="s">
-        <v>10</v>
-      </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
       <c r="D26" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1804,34 +1494,28 @@
       <c r="B27">
         <v>12</v>
       </c>
-      <c r="C27" t="s">
-        <v>10</v>
-      </c>
       <c r="D27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
+      <c r="A28">
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1841,17 +1525,14 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" t="s">
-        <v>10</v>
-      </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1861,17 +1542,14 @@
       <c r="B30">
         <v>2</v>
       </c>
-      <c r="C30" t="s">
-        <v>10</v>
-      </c>
       <c r="D30" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E30" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1881,136 +1559,112 @@
       <c r="B31">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
-        <v>10</v>
-      </c>
       <c r="D31" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
+      <c r="A32">
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>10</v>
+      <c r="A33">
+        <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
+      <c r="A34">
+        <v>95</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
-        <v>10</v>
+      <c r="A35">
+        <v>115</v>
       </c>
       <c r="D35" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" t="s">
-        <v>10</v>
+      <c r="A36">
+        <v>129</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" t="s">
-        <v>10</v>
+      <c r="A37">
+        <v>149</v>
       </c>
       <c r="D37" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E37" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F37" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
+      <c r="A38">
+        <v>181</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2020,17 +1674,14 @@
       <c r="B39">
         <v>2</v>
       </c>
-      <c r="C39" t="s">
-        <v>10</v>
-      </c>
       <c r="D39" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2040,51 +1691,42 @@
       <c r="B40">
         <v>2</v>
       </c>
-      <c r="C40" t="s">
-        <v>10</v>
-      </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" t="s">
-        <v>10</v>
+      <c r="A41">
+        <v>178</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F41" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E42" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2094,17 +1736,14 @@
       <c r="B43">
         <v>2</v>
       </c>
-      <c r="C43" t="s">
-        <v>10</v>
-      </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="E43" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2114,17 +1753,14 @@
       <c r="B44">
         <v>2</v>
       </c>
-      <c r="C44" t="s">
-        <v>10</v>
-      </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2134,51 +1770,42 @@
       <c r="B45">
         <v>2</v>
       </c>
-      <c r="C45" t="s">
-        <v>10</v>
-      </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>10</v>
+      <c r="A46">
+        <v>44</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>80</v>
-      </c>
-      <c r="C47" t="s">
-        <v>10</v>
+      <c r="A47">
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="E47" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,34 +1815,28 @@
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>10</v>
-      </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C49" t="s">
-        <v>10</v>
+      <c r="A49">
+        <v>161</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2225,34 +1846,28 @@
       <c r="B50">
         <v>2</v>
       </c>
-      <c r="C50" t="s">
-        <v>10</v>
-      </c>
       <c r="D50" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>10</v>
+      <c r="A51">
+        <v>117</v>
       </c>
       <c r="D51" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="E51" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2262,255 +1877,210 @@
       <c r="B52">
         <v>2</v>
       </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
+      <c r="A53">
+        <v>73</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="E53" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F53" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" t="s">
-        <v>10</v>
+      <c r="A54">
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E54" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C55" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D55" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="E55" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D56" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E56" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D57" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="E57" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="C58" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="E58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C59" t="s">
-        <v>10</v>
+      <c r="A59">
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="E59" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F59" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>100</v>
-      </c>
-      <c r="C60" t="s">
-        <v>10</v>
+      <c r="A60">
+        <v>198</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C61" t="s">
-        <v>10</v>
+      <c r="A61">
+        <v>180</v>
       </c>
       <c r="D61" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E61" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" t="s">
-        <v>10</v>
+      <c r="A62">
+        <v>164</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="E62" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>107</v>
-      </c>
-      <c r="C63" t="s">
-        <v>10</v>
+      <c r="A63">
+        <v>166</v>
       </c>
       <c r="D63" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E63" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F63" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>10</v>
+      <c r="A64">
+        <v>132</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="E64" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F64" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>111</v>
-      </c>
-      <c r="C65" t="s">
-        <v>10</v>
+      <c r="A65">
+        <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E65" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F65" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>113</v>
-      </c>
-      <c r="C66" t="s">
-        <v>10</v>
+      <c r="A66">
+        <v>92</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E66" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2520,153 +2090,126 @@
       <c r="B67">
         <v>8</v>
       </c>
-      <c r="C67" t="s">
-        <v>10</v>
-      </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E67" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F67" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="E68" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>119</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
+      <c r="A69">
+        <v>227</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>121</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
+      <c r="A70">
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
+      <c r="A71">
+        <v>450</v>
       </c>
       <c r="D71" t="s">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>125</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
+      <c r="A72">
+        <v>464</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
+      <c r="A73">
+        <v>476</v>
       </c>
       <c r="D73" t="s">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
+      <c r="A74">
+        <v>496</v>
       </c>
       <c r="D74" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>131</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
+      <c r="A75">
+        <v>506</v>
       </c>
       <c r="D75" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2676,153 +2219,126 @@
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
       <c r="D76" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="D77" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
+      <c r="A78">
+        <v>543</v>
       </c>
       <c r="D78" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>138</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
+      <c r="A80">
+        <v>560</v>
       </c>
       <c r="D80" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>142</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
+      <c r="A81">
+        <v>624</v>
       </c>
       <c r="D81" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>144</v>
-      </c>
-      <c r="C82" t="s">
-        <v>10</v>
+      <c r="A82">
+        <v>511</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" t="s">
-        <v>10</v>
+      <c r="A83">
+        <v>44</v>
       </c>
       <c r="D83" t="s">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="E83" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="E84" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2832,34 +2348,28 @@
       <c r="B85">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
-        <v>10</v>
-      </c>
       <c r="D85" t="s">
-        <v>149</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" t="s">
-        <v>10</v>
+      <c r="A86">
+        <v>39</v>
       </c>
       <c r="D86" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2869,272 +2379,224 @@
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" t="s">
-        <v>10</v>
-      </c>
       <c r="D87" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" t="s">
-        <v>10</v>
+      <c r="A88">
+        <v>68</v>
       </c>
       <c r="D88" t="s">
-        <v>156</v>
+        <v>110</v>
       </c>
       <c r="E88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F88" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D89" t="s">
-        <v>157</v>
+        <v>111</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" t="s">
-        <v>10</v>
+      <c r="A90">
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" t="s">
-        <v>10</v>
+      <c r="A91">
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>161</v>
+        <v>114</v>
       </c>
       <c r="E91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F91" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D92" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="E92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F92" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>163</v>
-      </c>
-      <c r="C93" t="s">
-        <v>10</v>
+      <c r="A93">
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="E93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F93" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>165</v>
-      </c>
-      <c r="C94" t="s">
-        <v>10</v>
+      <c r="A94">
+        <v>123</v>
       </c>
       <c r="D94" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="E94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F94" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" t="s">
-        <v>10</v>
+      <c r="A95">
+        <v>45</v>
       </c>
       <c r="D95" t="s">
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F95" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" t="s">
-        <v>10</v>
+      <c r="A96">
+        <v>65</v>
       </c>
       <c r="D96" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="E96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F96" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>147</v>
-      </c>
-      <c r="C97" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D97" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="E97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F97" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" t="s">
-        <v>10</v>
+      <c r="A98">
+        <v>155</v>
       </c>
       <c r="D98" t="s">
-        <v>173</v>
+        <v>121</v>
       </c>
       <c r="E98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F98" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>111</v>
-      </c>
-      <c r="C99" t="s">
-        <v>10</v>
+      <c r="A99">
+        <v>112</v>
       </c>
       <c r="D99" t="s">
-        <v>174</v>
+        <v>122</v>
       </c>
       <c r="E99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100">
+        <v>145</v>
+      </c>
+      <c r="D100" t="s">
+        <v>123</v>
+      </c>
+      <c r="E100" t="s">
+        <v>22</v>
+      </c>
+      <c r="F100" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
         <v>175</v>
       </c>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" t="s">
-        <v>176</v>
-      </c>
-      <c r="E100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" t="s">
-        <v>10</v>
-      </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="E101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F101" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102">
         <v>179</v>
       </c>
-      <c r="C102" t="s">
-        <v>10</v>
-      </c>
       <c r="D102" t="s">
-        <v>180</v>
+        <v>125</v>
       </c>
       <c r="E102" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F102" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,51 +2606,42 @@
       <c r="B103">
         <v>3</v>
       </c>
-      <c r="C103" t="s">
-        <v>10</v>
-      </c>
       <c r="D103" t="s">
-        <v>181</v>
+        <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F103" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>182</v>
-      </c>
-      <c r="C104" t="s">
-        <v>10</v>
+      <c r="A104">
+        <v>35</v>
       </c>
       <c r="D104" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F104" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>147</v>
-      </c>
-      <c r="C105" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="E105" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3198,34 +2651,28 @@
       <c r="B106">
         <v>2</v>
       </c>
-      <c r="C106" t="s">
-        <v>10</v>
-      </c>
       <c r="D106" t="s">
-        <v>185</v>
+        <v>129</v>
       </c>
       <c r="E106" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F106" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" t="s">
-        <v>10</v>
+      <c r="A107">
+        <v>121</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>130</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F107" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3235,85 +2682,70 @@
       <c r="B108">
         <v>2</v>
       </c>
-      <c r="C108" t="s">
-        <v>10</v>
-      </c>
       <c r="D108" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="E108" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F108" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" t="s">
-        <v>10</v>
+      <c r="A109">
+        <v>34</v>
       </c>
       <c r="D109" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="E109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F109" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>191</v>
-      </c>
-      <c r="C110" t="s">
-        <v>10</v>
+      <c r="A110">
+        <v>32</v>
       </c>
       <c r="D110" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="E110" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F110" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>193</v>
-      </c>
-      <c r="C111" t="s">
-        <v>10</v>
+      <c r="A111">
+        <v>207</v>
       </c>
       <c r="D111" t="s">
-        <v>194</v>
+        <v>134</v>
       </c>
       <c r="E111" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" t="s">
-        <v>10</v>
+      <c r="A112">
+        <v>227</v>
       </c>
       <c r="D112" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="E112" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F112" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3323,119 +2755,98 @@
       <c r="B113">
         <v>10</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
+        <v>136</v>
+      </c>
+      <c r="E113" t="s">
+        <v>22</v>
+      </c>
+      <c r="F113" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
         <v>10</v>
       </c>
-      <c r="D113" t="s">
-        <v>196</v>
-      </c>
-      <c r="E113" t="s">
-        <v>25</v>
-      </c>
-      <c r="F113" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>197</v>
-      </c>
-      <c r="C114" t="s">
-        <v>10</v>
-      </c>
       <c r="D114" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="E114" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F114" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>199</v>
-      </c>
-      <c r="C115" t="s">
-        <v>10</v>
+      <c r="A115">
+        <v>70</v>
       </c>
       <c r="D115" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="E115" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F115" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" t="s">
-        <v>10</v>
+      <c r="A116">
+        <v>60</v>
       </c>
       <c r="D116" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="E116" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F116" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>203</v>
-      </c>
-      <c r="C117" t="s">
-        <v>10</v>
+      <c r="A117">
+        <v>50</v>
       </c>
       <c r="D117" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="E117" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F117" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" t="s">
-        <v>10</v>
+      <c r="A118">
+        <v>290</v>
       </c>
       <c r="D118" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>207</v>
-      </c>
-      <c r="C119" t="s">
-        <v>10</v>
+      <c r="A119">
+        <v>278</v>
       </c>
       <c r="D119" t="s">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,34 +2856,28 @@
       <c r="B120">
         <v>4</v>
       </c>
-      <c r="C120" t="s">
-        <v>10</v>
-      </c>
       <c r="D120" t="s">
-        <v>209</v>
+        <v>143</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>93</v>
-      </c>
-      <c r="C121" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D121" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3482,17 +2887,14 @@
       <c r="B122">
         <v>4</v>
       </c>
-      <c r="C122" t="s">
-        <v>10</v>
-      </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>145</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3502,17 +2904,14 @@
       <c r="B123">
         <v>4</v>
       </c>
-      <c r="C123" t="s">
-        <v>10</v>
-      </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>146</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3522,51 +2921,42 @@
       <c r="B124">
         <v>2</v>
       </c>
-      <c r="C124" t="s">
-        <v>10</v>
-      </c>
       <c r="D124" t="s">
-        <v>213</v>
+        <v>147</v>
       </c>
       <c r="E124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>214</v>
-      </c>
-      <c r="C125" t="s">
-        <v>10</v>
+      <c r="A125">
+        <v>79</v>
       </c>
       <c r="D125" t="s">
-        <v>215</v>
+        <v>148</v>
       </c>
       <c r="E125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>163</v>
-      </c>
-      <c r="C126" t="s">
-        <v>10</v>
+      <c r="A126">
+        <v>100</v>
       </c>
       <c r="D126" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="E126" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3576,34 +2966,28 @@
       <c r="B127">
         <v>9</v>
       </c>
-      <c r="C127" t="s">
-        <v>10</v>
-      </c>
       <c r="D127" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>63</v>
-      </c>
-      <c r="C128" t="s">
-        <v>10</v>
+      <c r="A128">
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="E128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3613,17 +2997,14 @@
       <c r="B129">
         <v>2</v>
       </c>
-      <c r="C129" t="s">
-        <v>10</v>
-      </c>
       <c r="D129" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="E129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F129" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3633,17 +3014,14 @@
       <c r="B130">
         <v>2</v>
       </c>
-      <c r="C130" t="s">
-        <v>10</v>
-      </c>
       <c r="D130" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="E130" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3653,68 +3031,56 @@
       <c r="B131">
         <v>4</v>
       </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
       <c r="D131" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="E131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F131" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>222</v>
-      </c>
-      <c r="C132" t="s">
-        <v>10</v>
+      <c r="A132">
+        <v>240</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="E132" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>29</v>
-      </c>
-      <c r="C133" t="s">
-        <v>10</v>
+      <c r="A133">
+        <v>567</v>
       </c>
       <c r="D133" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>225</v>
-      </c>
-      <c r="C134" t="s">
-        <v>10</v>
+      <c r="A134">
+        <v>623</v>
       </c>
       <c r="D134" t="s">
-        <v>226</v>
+        <v>157</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,17 +3090,14 @@
       <c r="B135">
         <v>2</v>
       </c>
-      <c r="C135" t="s">
-        <v>10</v>
-      </c>
       <c r="D135" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="E135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>228</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3744,17 +3107,14 @@
       <c r="B136">
         <v>2</v>
       </c>
-      <c r="C136" t="s">
-        <v>10</v>
-      </c>
       <c r="D136" t="s">
-        <v>229</v>
+        <v>160</v>
       </c>
       <c r="E136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,17 +3124,14 @@
       <c r="B137">
         <v>2</v>
       </c>
-      <c r="C137" t="s">
-        <v>10</v>
-      </c>
       <c r="D137" t="s">
-        <v>230</v>
+        <v>161</v>
       </c>
       <c r="E137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,51 +3141,42 @@
       <c r="B138">
         <v>2</v>
       </c>
-      <c r="C138" t="s">
-        <v>10</v>
-      </c>
       <c r="D138" t="s">
-        <v>231</v>
+        <v>162</v>
       </c>
       <c r="E138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>232</v>
-      </c>
-      <c r="C139" t="s">
-        <v>10</v>
+      <c r="A139">
+        <v>378</v>
       </c>
       <c r="D139" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="E139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" t="s">
-        <v>10</v>
+      <c r="A140">
+        <v>398</v>
       </c>
       <c r="D140" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="E140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3838,159 +3186,132 @@
       <c r="B141">
         <v>2</v>
       </c>
-      <c r="C141" t="s">
-        <v>10</v>
-      </c>
       <c r="D141" t="s">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="E141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="B142">
         <v>20</v>
       </c>
-      <c r="C142" t="s">
-        <v>10</v>
-      </c>
       <c r="D142" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="E142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>239</v>
-      </c>
-      <c r="C143" t="s">
-        <v>10</v>
+      <c r="A143">
+        <v>200</v>
       </c>
       <c r="D143" t="s">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="E143" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F143" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>241</v>
-      </c>
-      <c r="C144" t="s">
-        <v>10</v>
+      <c r="A144">
+        <v>228</v>
       </c>
       <c r="D144" t="s">
-        <v>242</v>
+        <v>169</v>
       </c>
       <c r="E144" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F144" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>93</v>
-      </c>
-      <c r="C145" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D145" t="s">
-        <v>243</v>
+        <v>170</v>
       </c>
       <c r="E145" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F145" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>93</v>
-      </c>
-      <c r="C146" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D146" t="s">
-        <v>244</v>
+        <v>171</v>
       </c>
       <c r="E146" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F146" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
-      <c r="C147" t="s">
-        <v>10</v>
-      </c>
       <c r="D147" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="E147" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F147" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>116</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>247</v>
-      </c>
-      <c r="C148" t="s">
-        <v>10</v>
-      </c>
       <c r="D148" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="E148" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F148" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>121</v>
-      </c>
-      <c r="C149" t="s">
-        <v>10</v>
+      <c r="A149">
+        <v>94</v>
       </c>
       <c r="D149" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="E149" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F149" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4000,17 +3321,14 @@
       <c r="B150">
         <v>2</v>
       </c>
-      <c r="C150" t="s">
-        <v>10</v>
-      </c>
       <c r="D150" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="E150" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F150" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4020,51 +3338,42 @@
       <c r="B151">
         <v>6</v>
       </c>
-      <c r="C151" t="s">
-        <v>10</v>
-      </c>
       <c r="D151" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="E151" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F151" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>214</v>
-      </c>
-      <c r="C152" t="s">
-        <v>10</v>
+      <c r="A152">
+        <v>79</v>
       </c>
       <c r="D152" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="E152" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F152" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>253</v>
-      </c>
-      <c r="C153" t="s">
-        <v>10</v>
+      <c r="A153">
+        <v>78</v>
       </c>
       <c r="D153" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="E153" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F153" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,51 +3383,42 @@
       <c r="B154">
         <v>3</v>
       </c>
-      <c r="C154" t="s">
-        <v>10</v>
-      </c>
       <c r="D154" t="s">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F154" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>256</v>
-      </c>
-      <c r="C155" t="s">
-        <v>10</v>
+      <c r="A155">
+        <v>74</v>
       </c>
       <c r="D155" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>258</v>
-      </c>
-      <c r="C156" t="s">
-        <v>10</v>
+      <c r="A156">
+        <v>72</v>
       </c>
       <c r="D156" t="s">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="E156" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F156" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,17 +3428,14 @@
       <c r="B157">
         <v>6</v>
       </c>
-      <c r="C157" t="s">
-        <v>10</v>
-      </c>
       <c r="D157" t="s">
-        <v>260</v>
+        <v>182</v>
       </c>
       <c r="E157" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,34 +3445,28 @@
       <c r="B158">
         <v>8</v>
       </c>
-      <c r="C158" t="s">
-        <v>10</v>
-      </c>
       <c r="D158" t="s">
-        <v>261</v>
+        <v>183</v>
       </c>
       <c r="E158" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F158" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="D159" t="s">
-        <v>262</v>
+        <v>184</v>
       </c>
       <c r="E159" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F159" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,34 +3476,28 @@
       <c r="B160">
         <v>4</v>
       </c>
-      <c r="C160" t="s">
-        <v>10</v>
-      </c>
       <c r="D160" t="s">
-        <v>263</v>
+        <v>185</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>264</v>
-      </c>
-      <c r="C161" t="s">
-        <v>10</v>
+      <c r="A161">
+        <v>130</v>
       </c>
       <c r="D161" t="s">
-        <v>265</v>
+        <v>186</v>
       </c>
       <c r="E161" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4222,17 +3507,14 @@
       <c r="B162">
         <v>2</v>
       </c>
-      <c r="C162" t="s">
-        <v>10</v>
-      </c>
       <c r="D162" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="E162" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F162" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4242,51 +3524,42 @@
       <c r="B163">
         <v>2</v>
       </c>
-      <c r="C163" t="s">
-        <v>10</v>
-      </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="E163" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F163" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>163</v>
-      </c>
-      <c r="C164" t="s">
-        <v>10</v>
+      <c r="A164">
+        <v>100</v>
       </c>
       <c r="D164" t="s">
-        <v>269</v>
+        <v>190</v>
       </c>
       <c r="E164" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F164" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>247</v>
-      </c>
-      <c r="C165" t="s">
-        <v>10</v>
+      <c r="A165">
+        <v>116</v>
       </c>
       <c r="D165" t="s">
-        <v>270</v>
+        <v>191</v>
       </c>
       <c r="E165" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F165" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4296,34 +3569,28 @@
       <c r="B166">
         <v>6</v>
       </c>
-      <c r="C166" t="s">
-        <v>10</v>
-      </c>
       <c r="D166" t="s">
-        <v>271</v>
+        <v>192</v>
       </c>
       <c r="E166" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F166" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>272</v>
-      </c>
-      <c r="C167" t="s">
-        <v>10</v>
+      <c r="A167">
+        <v>88</v>
       </c>
       <c r="D167" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="E167" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F167" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4333,102 +3600,84 @@
       <c r="B168">
         <v>2</v>
       </c>
-      <c r="C168" t="s">
-        <v>10</v>
-      </c>
       <c r="D168" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="E168" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F168" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>275</v>
-      </c>
-      <c r="C169" t="s">
-        <v>10</v>
+      <c r="A169">
+        <v>77</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
+        <v>195</v>
       </c>
       <c r="E169" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F169" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>73</v>
-      </c>
-      <c r="C170" t="s">
-        <v>10</v>
+        <v>206</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="E170" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F170" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>93</v>
-      </c>
-      <c r="C171" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D171" t="s">
-        <v>278</v>
+        <v>197</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F171" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>93</v>
-      </c>
-      <c r="C172" t="s">
-        <v>10</v>
+      <c r="A172" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D172" t="s">
-        <v>279</v>
+        <v>198</v>
       </c>
       <c r="E172" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F172" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>280</v>
-      </c>
-      <c r="C173" t="s">
-        <v>10</v>
+      <c r="A173">
+        <v>101</v>
       </c>
       <c r="D173" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="E173" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F173" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -4438,51 +3687,42 @@
       <c r="B174">
         <v>8</v>
       </c>
-      <c r="C174" t="s">
-        <v>10</v>
-      </c>
       <c r="D174" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="E174" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F174" t="s">
-        <v>268</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>283</v>
-      </c>
-      <c r="C175" t="s">
-        <v>10</v>
+      <c r="A175">
+        <v>27</v>
       </c>
       <c r="D175" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="E175" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F175" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>285</v>
-      </c>
-      <c r="C176" t="s">
-        <v>10</v>
+      <c r="A176">
+        <v>51</v>
       </c>
       <c r="D176" t="s">
-        <v>286</v>
+        <v>202</v>
       </c>
       <c r="E176" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F176" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,55 +3732,59 @@
       <c r="B177">
         <v>2</v>
       </c>
-      <c r="C177" t="s">
-        <v>10</v>
-      </c>
       <c r="D177" t="s">
-        <v>287</v>
+        <v>203</v>
       </c>
       <c r="E177" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F177" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>93</v>
-      </c>
-      <c r="C178" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D178" t="s">
-        <v>288</v>
+        <v>204</v>
       </c>
       <c r="E178" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F178" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>93</v>
-      </c>
-      <c r="C179" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="D179" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="E179" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F179" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8799D-9148-4F23-BC45-58DEC00530D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42360A9-0766-4C62-AD38-A6B5C411AE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A054503D-7F72-4B4D-B509-60CC9B055997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
@@ -689,9 +689,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="D186" sqref="D186"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3653,7 +3652,7 @@
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="1" t="s">
+      <c r="A172" t="s">
         <v>68</v>
       </c>
       <c r="D172" t="s">

--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -1,30 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A054503D-7F72-4B4D-B509-60CC9B055997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EC34B-B1EF-4A9E-9AD7-A9E197383A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="My Sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'My Sheet'!$A$1:$J$179</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="289">
   <si>
     <t>NUMERO</t>
   </si>
@@ -35,7 +31,7 @@
     <t>PREDIO</t>
   </si>
   <si>
-    <t>Coordenadas</t>
+    <t>coordenadas</t>
   </si>
   <si>
     <t>CEP GEOPY</t>
@@ -71,6 +67,9 @@
     <t>-48.37875791,-27.45149724,0</t>
   </si>
   <si>
+    <t>367</t>
+  </si>
+  <si>
     <t>-48.37869454,-27.45132944,0</t>
   </si>
   <si>
@@ -89,18 +88,27 @@
     <t>-48.37893192,-27.45223629,0</t>
   </si>
   <si>
+    <t>479</t>
+  </si>
+  <si>
     <t>-48.37894533,-27.45234489,0</t>
   </si>
   <si>
     <t>88058724</t>
   </si>
   <si>
+    <t>512</t>
+  </si>
+  <si>
     <t>-48.37907709,-27.45275933,0</t>
   </si>
   <si>
     <t>-48.37904658,-27.45290155,0</t>
   </si>
   <si>
+    <t>567</t>
+  </si>
+  <si>
     <t>-48.37908011,-27.45302532,0</t>
   </si>
   <si>
@@ -116,15 +124,24 @@
     <t>-48.37857602645886,-27.45069207952894,0</t>
   </si>
   <si>
+    <t>277</t>
+  </si>
+  <si>
     <t>-48.37856043000001,-27.45045025,0</t>
   </si>
   <si>
+    <t>255</t>
+  </si>
+  <si>
     <t>-48.37851014,-27.45033957,0</t>
   </si>
   <si>
     <t>-48.37852087,-27.45018217,0</t>
   </si>
   <si>
+    <t>249</t>
+  </si>
+  <si>
     <t>-48.37851687580834,-27.4502255165206,0</t>
   </si>
   <si>
@@ -146,6 +163,9 @@
     <t>88058723</t>
   </si>
   <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>-48.37831965689847,-27.44836873186086,0</t>
   </si>
   <si>
@@ -161,24 +181,45 @@
     <t>-48.37811049,-27.448203,0</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
     <t>-48.37796565,-27.44823811,0</t>
   </si>
   <si>
+    <t>67</t>
+  </si>
+  <si>
     <t>-48.37779365,-27.44825358,0</t>
   </si>
   <si>
+    <t>95</t>
+  </si>
+  <si>
     <t>-48.37754153,-27.44826667,0</t>
   </si>
   <si>
+    <t>115</t>
+  </si>
+  <si>
     <t>-48.37732092,-27.44830386,0</t>
   </si>
   <si>
+    <t>129</t>
+  </si>
+  <si>
     <t>-48.37717038,-27.4483357,0</t>
   </si>
   <si>
+    <t>149</t>
+  </si>
+  <si>
     <t>-48.37694003999999,-27.44835415,0</t>
   </si>
   <si>
+    <t>181</t>
+  </si>
+  <si>
     <t>-48.37671204999999,-27.44838093,0</t>
   </si>
   <si>
@@ -188,9 +229,15 @@
     <t>-48.37657050854732,-27.44857776686061,0</t>
   </si>
   <si>
+    <t>178</t>
+  </si>
+  <si>
     <t>-48.37669965,-27.44857878,0</t>
   </si>
   <si>
+    <t>S/N</t>
+  </si>
+  <si>
     <t>-48.37686762,-27.44856004,0</t>
   </si>
   <si>
@@ -203,30 +250,48 @@
     <t>-48.37761125999999,-27.4484678,0</t>
   </si>
   <si>
+    <t>44</t>
+  </si>
+  <si>
     <t>-48.37793648,-27.44840205,0</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>-48.37811317,-27.44837497,0</t>
   </si>
   <si>
     <t>-48.37832306,-27.4483113,0</t>
   </si>
   <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>-48.3767144,-27.44871446000001,0</t>
   </si>
   <si>
     <t>-48.37696552,-27.44866685,0</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
     <t>-48.37715294,-27.44864275,0</t>
   </si>
   <si>
     <t>-48.37739869999999,-27.448613,0</t>
   </si>
   <si>
+    <t>73</t>
+  </si>
+  <si>
     <t>-48.37751035,-27.44859693,0</t>
   </si>
   <si>
+    <t>71</t>
+  </si>
+  <si>
     <t>-48.3775945,-27.44856659,0</t>
   </si>
   <si>
@@ -245,30 +310,54 @@
     <t>-48.37789389999999,-27.44853415,0</t>
   </si>
   <si>
+    <t>208</t>
+  </si>
+  <si>
     <t>-48.37623864,-27.44898164,0</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
     <t>-48.37636538,-27.44899979,0</t>
   </si>
   <si>
+    <t>180</t>
+  </si>
+  <si>
     <t>-48.37650083,-27.4489983,0</t>
   </si>
   <si>
     <t>88058457</t>
   </si>
   <si>
+    <t>164</t>
+  </si>
+  <si>
     <t>-48.37666512,-27.44897956,0</t>
   </si>
   <si>
+    <t>166</t>
+  </si>
+  <si>
     <t>-48.37677676,-27.44896766,0</t>
   </si>
   <si>
+    <t>132</t>
+  </si>
+  <si>
     <t>-48.37703191000001,-27.44893969,0</t>
   </si>
   <si>
+    <t>112</t>
+  </si>
+  <si>
     <t>-48.37716802999999,-27.44886293,0</t>
   </si>
   <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>-48.37729342,-27.44888316,0</t>
   </si>
   <si>
@@ -284,384 +373,547 @@
     <t>88058733</t>
   </si>
   <si>
+    <t>227</t>
+  </si>
+  <si>
     <t>-48.37770045000001,-27.4500706,0</t>
   </si>
   <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>-48.37910526,-27.45188313,0</t>
   </si>
   <si>
+    <t>450</t>
+  </si>
+  <si>
     <t>-48.37915089762442,-27.45193850135754,0</t>
   </si>
   <si>
+    <t>464</t>
+  </si>
+  <si>
     <t>-48.37917298,-27.45216161,0</t>
   </si>
   <si>
+    <t>476</t>
+  </si>
+  <si>
     <t>-48.37920584,-27.4522348,0</t>
   </si>
   <si>
+    <t>496</t>
+  </si>
+  <si>
     <t>-48.37925412,-27.45243652,0</t>
   </si>
   <si>
+    <t>506</t>
+  </si>
+  <si>
     <t>-48.37926216,-27.45253679,0</t>
   </si>
   <si>
     <t>-48.37927825999999,-27.45266264,0</t>
   </si>
   <si>
+    <t>-48.37932419,-27.45282568,0</t>
+  </si>
+  <si>
+    <t>543</t>
+  </si>
+  <si>
+    <t>-48.37936771988549,-27.45286320298741,0</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>-48.37940533,-27.45298188,0</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>-48.37942846000001,-27.45305894,0</t>
+  </si>
+  <si>
+    <t>624</t>
+  </si>
+  <si>
+    <t>-48.37948613,-27.45320264,0</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>-48.3789859,-27.4526317,0</t>
+  </si>
+  <si>
+    <t>-48.37872874,-27.45258975,0</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>-48.37850545000001,-27.45255583,0</t>
+  </si>
+  <si>
+    <t>-48.37826237,-27.45173705,0</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>-48.37778158,-27.4516579,0</t>
+  </si>
+  <si>
+    <t>88058746</t>
+  </si>
+  <si>
+    <t>-48.37761462160369,-27.45149916104785,0</t>
+  </si>
+  <si>
+    <t>88058000</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>-48.37742747247494,-27.45153793357861,0</t>
+  </si>
+  <si>
+    <t>-48.37731153,-27.45174002,0</t>
+  </si>
+  <si>
+    <t>88058739</t>
+  </si>
+  <si>
+    <t>-48.37715764000001,-27.45179655,0</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>-48.37702855,-27.45182422,0</t>
+  </si>
+  <si>
+    <t>-48.3768693,-27.45183285,0</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>-48.37666243000001,-27.45185278,0</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>-48.37815978,-27.45142435,0</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>-48.37753449,-27.45133271,0</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>-48.37733533,-27.45139132,0</t>
+  </si>
+  <si>
+    <t>-48.37681859255152,-27.4514387619247,0</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>-48.37651424,-27.45155139,0</t>
+  </si>
+  <si>
+    <t>-48.37790061,-27.45147433,0</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>-48.37814435,-27.45122144,0</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>-48.37798778,-27.45097657,0</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>-48.37799214,-27.45088345,0</t>
+  </si>
+  <si>
+    <t>-48.37790161,-27.45053445,0</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>-48.37793916,-27.45038063,0</t>
+  </si>
+  <si>
+    <t>-48.377853,-27.45014082,0</t>
+  </si>
+  <si>
+    <t>-48.37772926433586,-27.45056738426266,0</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>-48.37752812,-27.45061537,0</t>
+  </si>
+  <si>
+    <t>-48.37736685,-27.45061032,0</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>-48.37699201,-27.45069779,0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>-48.37678682,-27.45070463,0</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>-48.37663292999999,-27.45072873,0</t>
+  </si>
+  <si>
+    <t>-48.37648607999999,-27.45077485,0</t>
+  </si>
+  <si>
+    <t>-48.37700776999999,-27.45108517,0</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-48.37672077,-27.45111581,0</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>-48.37799717,-27.45071921,0</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>-48.37818794,-27.45065971,0</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>-48.37834418,-27.45063144,0</t>
+  </si>
+  <si>
+    <t>290</t>
+  </si>
+  <si>
+    <t>-48.37877534,-27.45052344,0</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>-48.3787455,-27.45038003000001,0</t>
+  </si>
+  <si>
+    <t>-48.37874103666672,-27.45027563758167,0</t>
+  </si>
+  <si>
+    <t>-48.37867107000001,-27.45012712999999,0</t>
+  </si>
+  <si>
+    <t>-48.37862179,-27.44996766,0</t>
+  </si>
+  <si>
+    <t>-48.37861039,-27.44980193,0</t>
+  </si>
+  <si>
+    <t>-48.37752242,-27.44954755,0</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>-48.3773293,-27.44976355,0</t>
+  </si>
+  <si>
+    <t>-48.37713115,-27.44977188,0</t>
+  </si>
+  <si>
+    <t>-48.3766621,-27.44988137,0</t>
+  </si>
+  <si>
+    <t>-48.37683074,-27.44982395,0</t>
+  </si>
+  <si>
+    <t>-48.37708153000001,-27.45016938,0</t>
+  </si>
+  <si>
+    <t>-48.37713593241524,-27.45064881771335,0</t>
+  </si>
+  <si>
+    <t>-48.37690048,-27.45021609,0</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>-48.37672547,-27.45025923,0</t>
+  </si>
+  <si>
+    <t>-48.37843135,-27.44923127,0</t>
+  </si>
+  <si>
+    <t>623</t>
+  </si>
+  <si>
+    <t>-48.37844409,-27.44871505,0</t>
+  </si>
+  <si>
+    <t>-48.37881188999999,-27.45067012,0</t>
+  </si>
+  <si>
+    <t>88058741</t>
+  </si>
+  <si>
+    <t>-48.37888163,-27.45091528,0</t>
+  </si>
+  <si>
+    <t>-48.37893762,-27.45113426,0</t>
+  </si>
+  <si>
+    <t>-48.3789812,-27.45136782000001,0</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t>-48.37899059000001,-27.45148266,0</t>
+  </si>
+  <si>
+    <t>398</t>
+  </si>
+  <si>
+    <t>-48.37900870000001,-27.45157281,0</t>
+  </si>
+  <si>
+    <t>-48.37907441000001,-27.4517061,0</t>
+  </si>
+  <si>
+    <t>-48.37822381,-27.45291523,0</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>-48.37659605,-27.45098431,0</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>-48.37642841,-27.45099442,0</t>
+  </si>
+  <si>
+    <t>-48.37674793,-27.45093313,0</t>
+  </si>
+  <si>
+    <t>-48.376932,-27.45089683,0</t>
+  </si>
+  <si>
+    <t>-48.37737657,-27.45088821,0</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>-48.37754755999999,-27.45082721,0</t>
+  </si>
+  <si>
+    <t>-48.37774068,-27.45081144,0</t>
+  </si>
+  <si>
+    <t>-48.37779269156447,-27.45129610709144,0</t>
+  </si>
+  <si>
+    <t>-48.37733734,-27.45047851,0</t>
+  </si>
+  <si>
+    <t>-48.3773246,-27.45036902,0</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>-48.37730146999999,-27.45025239,0</t>
+  </si>
+  <si>
+    <t>-48.37723350877318,-27.45000972344396,0</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>-48.37738395,-27.44995754,0</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>-48.37769777,-27.44986917,0</t>
+  </si>
+  <si>
+    <t>-48.37805308505286,-27.44976348327336,0</t>
+  </si>
+  <si>
+    <t>-48.37693401,-27.45048655,0</t>
+  </si>
+  <si>
+    <t>-48.37664198,-27.45054873,0</t>
+  </si>
+  <si>
+    <t>-48.37702487,-27.45001972,0</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>-48.37687634,-27.45003787,0</t>
+  </si>
+  <si>
+    <t>-48.37669395000001,-27.45007774,0</t>
+  </si>
+  <si>
+    <t>-48.37652396,-27.44955826,0</t>
+  </si>
+  <si>
+    <t>88058732</t>
+  </si>
+  <si>
+    <t>-48.37666411,-27.44950887,0</t>
+  </si>
+  <si>
+    <t>-48.37693937,-27.44948804,0</t>
+  </si>
+  <si>
+    <t>-48.37705333073936,-27.44946730695136,0</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>-48.37716964558384,-27.44944109009478,0</t>
+  </si>
+  <si>
+    <t>-48.37728638000001,-27.44945323,0</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>-48.37720491,-27.44922205,0</t>
+  </si>
+  <si>
+    <t>-48.37733399,-27.44920777,0</t>
+  </si>
+  <si>
+    <t>-48.37705605,-27.44922324,0</t>
+  </si>
+  <si>
+    <t>-48.37683879,-27.44924645,0</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>-48.37670568,-27.44927531,0</t>
+  </si>
+  <si>
+    <t>-48.37657358,-27.44928959,0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>-48.37826304,-27.45048893,0</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>-48.37813564,-27.45049369,0</t>
+  </si>
+  <si>
+    <t>-48.37802064000001,-27.45054575,0</t>
+  </si>
+  <si>
+    <t>-48.37676861110523,-27.45051971235656,0</t>
+  </si>
+  <si>
+    <t>-48.37708834595168,-27.45045706804933,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S/N </t>
+  </si>
+  <si>
     <t xml:space="preserve">Sn </t>
   </si>
   <si>
-    <t>-48.37932419,-27.45282568,0</t>
-  </si>
-  <si>
-    <t>-48.37936771988549,-27.45286320298741,0</t>
-  </si>
-  <si>
-    <t>Sn</t>
-  </si>
-  <si>
-    <t>-48.37940533,-27.45298188,0</t>
-  </si>
-  <si>
-    <t>-48.37942846000001,-27.45305894,0</t>
-  </si>
-  <si>
-    <t>-48.37948613,-27.45320264,0</t>
-  </si>
-  <si>
-    <t>-48.3789859,-27.4526317,0</t>
-  </si>
-  <si>
-    <t>-48.37872874,-27.45258975,0</t>
-  </si>
-  <si>
-    <t>SN</t>
-  </si>
-  <si>
-    <t>-48.37850545000001,-27.45255583,0</t>
-  </si>
-  <si>
-    <t>-48.37826237,-27.45173705,0</t>
-  </si>
-  <si>
-    <t>-48.37778158,-27.4516579,0</t>
-  </si>
-  <si>
-    <t>88058746</t>
-  </si>
-  <si>
-    <t>-48.37761462160369,-27.45149916104785,0</t>
-  </si>
-  <si>
-    <t>88058000</t>
-  </si>
-  <si>
-    <t>-48.37742747247494,-27.45153793357861,0</t>
-  </si>
-  <si>
-    <t>-48.37731153,-27.45174002,0</t>
-  </si>
-  <si>
-    <t>88058739</t>
-  </si>
-  <si>
-    <t>-48.37715764000001,-27.45179655,0</t>
-  </si>
-  <si>
-    <t>-48.37702855,-27.45182422,0</t>
-  </si>
-  <si>
-    <t>-48.3768693,-27.45183285,0</t>
-  </si>
-  <si>
-    <t>-48.37666243000001,-27.45185278,0</t>
-  </si>
-  <si>
-    <t>-48.37815978,-27.45142435,0</t>
-  </si>
-  <si>
-    <t>-48.37753449,-27.45133271,0</t>
-  </si>
-  <si>
-    <t>-48.37733533,-27.45139132,0</t>
-  </si>
-  <si>
-    <t>-48.37681859255152,-27.4514387619247,0</t>
-  </si>
-  <si>
-    <t>-48.37651424,-27.45155139,0</t>
-  </si>
-  <si>
-    <t>-48.37790061,-27.45147433,0</t>
-  </si>
-  <si>
-    <t>-48.37814435,-27.45122144,0</t>
-  </si>
-  <si>
-    <t>-48.37798778,-27.45097657,0</t>
-  </si>
-  <si>
-    <t>-48.37799214,-27.45088345,0</t>
-  </si>
-  <si>
-    <t>-48.37790161,-27.45053445,0</t>
-  </si>
-  <si>
-    <t>-48.37793916,-27.45038063,0</t>
-  </si>
-  <si>
-    <t>-48.377853,-27.45014082,0</t>
-  </si>
-  <si>
-    <t>-48.37772926433586,-27.45056738426266,0</t>
-  </si>
-  <si>
-    <t>-48.37752812,-27.45061537,0</t>
-  </si>
-  <si>
-    <t>-48.37736685,-27.45061032,0</t>
-  </si>
-  <si>
-    <t>-48.37699201,-27.45069779,0</t>
-  </si>
-  <si>
-    <t>-48.37678682,-27.45070463,0</t>
-  </si>
-  <si>
-    <t>-48.37663292999999,-27.45072873,0</t>
-  </si>
-  <si>
-    <t>-48.37648607999999,-27.45077485,0</t>
-  </si>
-  <si>
-    <t>-48.37700776999999,-27.45108517,0</t>
-  </si>
-  <si>
-    <t>-48.37672077,-27.45111581,0</t>
-  </si>
-  <si>
-    <t>-48.37799717,-27.45071921,0</t>
-  </si>
-  <si>
-    <t>-48.37818794,-27.45065971,0</t>
-  </si>
-  <si>
-    <t>-48.37834418,-27.45063144,0</t>
-  </si>
-  <si>
-    <t>-48.37877534,-27.45052344,0</t>
-  </si>
-  <si>
-    <t>-48.3787455,-27.45038003000001,0</t>
-  </si>
-  <si>
-    <t>-48.37874103666672,-27.45027563758167,0</t>
-  </si>
-  <si>
-    <t>-48.37867107000001,-27.45012712999999,0</t>
-  </si>
-  <si>
-    <t>-48.37862179,-27.44996766,0</t>
-  </si>
-  <si>
-    <t>-48.37861039,-27.44980193,0</t>
-  </si>
-  <si>
-    <t>-48.37752242,-27.44954755,0</t>
-  </si>
-  <si>
-    <t>-48.3773293,-27.44976355,0</t>
-  </si>
-  <si>
-    <t>-48.37713115,-27.44977188,0</t>
-  </si>
-  <si>
-    <t>-48.3766621,-27.44988137,0</t>
-  </si>
-  <si>
-    <t>-48.37683074,-27.44982395,0</t>
-  </si>
-  <si>
-    <t>-48.37708153000001,-27.45016938,0</t>
-  </si>
-  <si>
-    <t>-48.37713593241524,-27.45064881771335,0</t>
-  </si>
-  <si>
-    <t>-48.37690048,-27.45021609,0</t>
-  </si>
-  <si>
-    <t>-48.37672547,-27.45025923,0</t>
-  </si>
-  <si>
-    <t>-48.37843135,-27.44923127,0</t>
-  </si>
-  <si>
-    <t>-48.37844409,-27.44871505,0</t>
-  </si>
-  <si>
-    <t>-48.37881188999999,-27.45067012,0</t>
-  </si>
-  <si>
-    <t>88058741</t>
-  </si>
-  <si>
-    <t>-48.37888163,-27.45091528,0</t>
-  </si>
-  <si>
-    <t>-48.37893762,-27.45113426,0</t>
-  </si>
-  <si>
-    <t>-48.3789812,-27.45136782000001,0</t>
-  </si>
-  <si>
-    <t>-48.37899059000001,-27.45148266,0</t>
-  </si>
-  <si>
-    <t>-48.37900870000001,-27.45157281,0</t>
-  </si>
-  <si>
-    <t>-48.37907441000001,-27.4517061,0</t>
-  </si>
-  <si>
-    <t>-48.37822381,-27.45291523,0</t>
-  </si>
-  <si>
-    <t>Tem que usar o CEP padrão</t>
-  </si>
-  <si>
-    <t>-48.37659605,-27.45098431,0</t>
-  </si>
-  <si>
-    <t>-48.37642841,-27.45099442,0</t>
-  </si>
-  <si>
-    <t>-48.37674793,-27.45093313,0</t>
-  </si>
-  <si>
-    <t>-48.376932,-27.45089683,0</t>
-  </si>
-  <si>
-    <t>-48.37737657,-27.45088821,0</t>
-  </si>
-  <si>
-    <t>-48.37754755999999,-27.45082721,0</t>
-  </si>
-  <si>
-    <t>-48.37774068,-27.45081144,0</t>
-  </si>
-  <si>
-    <t>-48.37779269156447,-27.45129610709144,0</t>
-  </si>
-  <si>
-    <t>-48.37733734,-27.45047851,0</t>
-  </si>
-  <si>
-    <t>-48.3773246,-27.45036902,0</t>
-  </si>
-  <si>
-    <t>-48.37730146999999,-27.45025239,0</t>
-  </si>
-  <si>
-    <t>-48.37723350877318,-27.45000972344396,0</t>
-  </si>
-  <si>
-    <t>-48.37738395,-27.44995754,0</t>
-  </si>
-  <si>
-    <t>-48.37769777,-27.44986917,0</t>
-  </si>
-  <si>
-    <t>-48.37805308505286,-27.44976348327336,0</t>
-  </si>
-  <si>
-    <t>-48.37693401,-27.45048655,0</t>
-  </si>
-  <si>
-    <t>-48.37664198,-27.45054873,0</t>
-  </si>
-  <si>
-    <t>-48.37702487,-27.45001972,0</t>
-  </si>
-  <si>
-    <t>-48.37687634,-27.45003787,0</t>
-  </si>
-  <si>
-    <t>-48.37669395000001,-27.45007774,0</t>
-  </si>
-  <si>
-    <t>-48.37652396,-27.44955826,0</t>
-  </si>
-  <si>
-    <t>88058732</t>
-  </si>
-  <si>
-    <t>-48.37666411,-27.44950887,0</t>
-  </si>
-  <si>
-    <t>-48.37693937,-27.44948804,0</t>
-  </si>
-  <si>
-    <t>-48.37705333073936,-27.44946730695136,0</t>
-  </si>
-  <si>
-    <t>-48.37716964558384,-27.44944109009478,0</t>
-  </si>
-  <si>
-    <t>-48.37728638000001,-27.44945323,0</t>
-  </si>
-  <si>
-    <t>-48.37720491,-27.44922205,0</t>
-  </si>
-  <si>
-    <t>-48.37733399,-27.44920777,0</t>
-  </si>
-  <si>
-    <t>-48.37705605,-27.44922324,0</t>
-  </si>
-  <si>
-    <t>-48.37683879,-27.44924645,0</t>
-  </si>
-  <si>
-    <t>-48.37670568,-27.44927531,0</t>
-  </si>
-  <si>
-    <t>-48.37657358,-27.44928959,0</t>
-  </si>
-  <si>
-    <t>-48.37826304,-27.45048893,0</t>
-  </si>
-  <si>
-    <t>-48.37813564,-27.45049369,0</t>
-  </si>
-  <si>
-    <t>-48.37802064000001,-27.45054575,0</t>
-  </si>
-  <si>
-    <t>-48.37676861110523,-27.45051971235656,0</t>
-  </si>
-  <si>
-    <t>-48.37708834595168,-27.45045706804933,0</t>
-  </si>
-  <si>
-    <t>sn</t>
+    <t>128 2</t>
   </si>
   <si>
     <t>sim</t>
-  </si>
-  <si>
-    <t>lv</t>
-  </si>
-  <si>
-    <t>337+7:170</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -677,7 +929,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -685,18 +937,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -783,7 +1054,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -818,7 +1088,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -853,16 +1122,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -984,46 +1257,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -1033,34 +1267,22 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="I169" sqref="I169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1086,6 +1308,9 @@
       <c r="A2">
         <v>417</v>
       </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
@@ -1097,8 +1322,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>206</v>
+      <c r="A3">
+        <v>405</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1132,10 +1357,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1149,13 +1374,10 @@
         <v>355</v>
       </c>
       <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>207</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1165,14 +1387,14 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>209</v>
+      <c r="A7">
+        <v>337</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1189,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1206,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1223,7 +1445,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1233,25 +1455,25 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>479</v>
+      <c r="A11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>512</v>
+      <c r="A12" t="s">
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -1268,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1278,11 +1500,11 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>567</v>
+      <c r="A14" t="s">
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -1299,7 +1521,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -1316,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1333,7 +1555,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1350,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1360,11 +1582,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>277</v>
+      <c r="A19" t="s">
+        <v>34</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1374,11 +1596,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>255</v>
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1395,7 +1617,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1405,11 +1627,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>249</v>
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1426,7 +1648,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1443,7 +1665,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1460,7 +1682,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1471,16 +1693,16 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
@@ -1494,21 +1716,21 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>41</v>
+      <c r="A28" t="s">
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1525,10 +1747,10 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
@@ -1542,13 +1764,13 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,111 +1781,111 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
         <v>56</v>
       </c>
-      <c r="D32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>67</v>
-      </c>
-      <c r="D33" t="s">
-        <v>46</v>
-      </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>95</v>
+      <c r="A34" t="s">
+        <v>57</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>115</v>
+      <c r="A35" t="s">
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>129</v>
+      <c r="A36" t="s">
+        <v>61</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>149</v>
+      <c r="A37" t="s">
+        <v>63</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>181</v>
+      <c r="A38" t="s">
+        <v>65</v>
       </c>
       <c r="D38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" t="s">
         <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-      <c r="F38" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1674,13 +1896,13 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1691,58 +1913,58 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>178</v>
+      <c r="A41" t="s">
+        <v>69</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="E42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>128</v>
+      <c r="A43" t="s">
+        <v>287</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1753,13 +1975,13 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1770,41 +1992,41 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>44</v>
+      <c r="A46" t="s">
+        <v>76</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="E46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>38</v>
+      <c r="A47" t="s">
+        <v>78</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1815,7 +2037,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -1825,17 +2047,17 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>161</v>
+      <c r="A49" t="s">
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1846,27 +2068,27 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>117</v>
+      <c r="A51" t="s">
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -1877,209 +2099,209 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="E52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F52" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>73</v>
+      <c r="A53" t="s">
+        <v>87</v>
       </c>
       <c r="D53" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>71</v>
+      <c r="A54" t="s">
+        <v>89</v>
       </c>
       <c r="D54" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="E56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D57" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D58" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F58" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>208</v>
+      <c r="A59" t="s">
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>198</v>
+      <c r="A60" t="s">
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>180</v>
+      <c r="A61" t="s">
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>164</v>
+      <c r="A62" t="s">
+        <v>103</v>
       </c>
       <c r="D62" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="E62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>166</v>
+      <c r="A63" t="s">
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="E63" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>132</v>
+      <c r="A64" t="s">
+        <v>107</v>
       </c>
       <c r="D64" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="D65" t="s">
+        <v>110</v>
+      </c>
+      <c r="E65" t="s">
+        <v>24</v>
+      </c>
+      <c r="F65" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="D66" t="s">
         <v>112</v>
       </c>
-      <c r="D65" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>92</v>
-      </c>
-      <c r="D66" t="s">
-        <v>81</v>
-      </c>
       <c r="E66" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2090,49 +2312,49 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F68" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>227</v>
+      <c r="A69" t="s">
+        <v>117</v>
       </c>
       <c r="D69" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>94</v>
+      <c r="A70" t="s">
+        <v>119</v>
       </c>
       <c r="D70" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2142,11 +2364,11 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>450</v>
+      <c r="A71" t="s">
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2156,11 +2378,11 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>464</v>
+      <c r="A72" t="s">
+        <v>123</v>
       </c>
       <c r="D72" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2170,11 +2392,11 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>476</v>
+      <c r="A73" t="s">
+        <v>125</v>
       </c>
       <c r="D73" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2184,11 +2406,11 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>496</v>
+      <c r="A74" t="s">
+        <v>127</v>
       </c>
       <c r="D74" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2198,11 +2420,11 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>506</v>
+      <c r="A75" t="s">
+        <v>129</v>
       </c>
       <c r="D75" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2219,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2230,10 +2452,10 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>94</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2243,11 +2465,11 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>543</v>
+      <c r="A78" t="s">
+        <v>133</v>
       </c>
       <c r="D78" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2258,10 +2480,10 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2271,11 +2493,11 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>560</v>
+      <c r="A80" t="s">
+        <v>137</v>
       </c>
       <c r="D80" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2285,11 +2507,11 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>624</v>
+      <c r="A81" t="s">
+        <v>139</v>
       </c>
       <c r="D81" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2299,11 +2521,11 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>511</v>
+      <c r="A82" t="s">
+        <v>141</v>
       </c>
       <c r="D82" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2313,28 +2535,28 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>44</v>
+      <c r="A83" t="s">
+        <v>76</v>
       </c>
       <c r="D83" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="E83" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F83" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="E84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
@@ -2348,27 +2570,27 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="E85" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>39</v>
+      <c r="A86" t="s">
+        <v>147</v>
       </c>
       <c r="D86" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E86" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2379,223 +2601,223 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="E87" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>68</v>
+      <c r="A88" t="s">
+        <v>152</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E88" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F88" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D89" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F89" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>94</v>
+      <c r="A90" t="s">
+        <v>119</v>
       </c>
       <c r="D90" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="E90" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F90" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>96</v>
+      <c r="A91" t="s">
+        <v>157</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
       <c r="E91" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="E92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F92" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>100</v>
+      <c r="A93" t="s">
+        <v>160</v>
       </c>
       <c r="D93" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="E93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F93" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>123</v>
+      <c r="A94" t="s">
+        <v>162</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>163</v>
       </c>
       <c r="E94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>45</v>
+      <c r="A95" t="s">
+        <v>164</v>
       </c>
       <c r="D95" t="s">
-        <v>118</v>
+        <v>165</v>
       </c>
       <c r="E95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>65</v>
+      <c r="A96" t="s">
+        <v>166</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="E96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F96" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="E97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>169</v>
+      </c>
+      <c r="D98" t="s">
+        <v>170</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+      <c r="F98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>155</v>
-      </c>
-      <c r="D98" t="s">
-        <v>121</v>
-      </c>
-      <c r="E98" t="s">
-        <v>22</v>
-      </c>
-      <c r="F98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>112</v>
-      </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="E99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>145</v>
+      <c r="A100" t="s">
+        <v>172</v>
       </c>
       <c r="D100" t="s">
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="E100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="D101" t="s">
         <v>175</v>
       </c>
-      <c r="D101" t="s">
-        <v>124</v>
-      </c>
       <c r="E101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F101" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>179</v>
+      <c r="A102" t="s">
+        <v>176</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="E102" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F102" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2606,38 +2828,38 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="E103" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F103" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>35</v>
+      <c r="A104" t="s">
+        <v>179</v>
       </c>
       <c r="D104" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="E104" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F104" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="D105" t="s">
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="E105" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
@@ -2651,27 +2873,27 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>129</v>
+        <v>182</v>
       </c>
       <c r="E106" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F106" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>121</v>
+      <c r="A107" t="s">
+        <v>183</v>
       </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="E107" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F107" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -2682,69 +2904,69 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="E108" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F108" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>34</v>
+      <c r="A109" t="s">
+        <v>186</v>
       </c>
       <c r="D109" t="s">
-        <v>132</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F109" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>32</v>
+      <c r="A110" t="s">
+        <v>188</v>
       </c>
       <c r="D110" t="s">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="E110" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F110" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>207</v>
+      <c r="A111" t="s">
+        <v>190</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>191</v>
       </c>
       <c r="E111" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F111" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>227</v>
+      <c r="A112" t="s">
+        <v>117</v>
       </c>
       <c r="D112" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="E112" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F112" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,77 +2977,77 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>136</v>
+        <v>193</v>
       </c>
       <c r="E113" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F113" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>10</v>
+      <c r="A114" t="s">
+        <v>194</v>
       </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="E114" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F114" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>70</v>
+      <c r="A115" t="s">
+        <v>196</v>
       </c>
       <c r="D115" t="s">
-        <v>138</v>
+        <v>197</v>
       </c>
       <c r="E115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>60</v>
+      <c r="A116" t="s">
+        <v>198</v>
       </c>
       <c r="D116" t="s">
-        <v>139</v>
+        <v>199</v>
       </c>
       <c r="E116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F116" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>50</v>
+      <c r="A117" t="s">
+        <v>200</v>
       </c>
       <c r="D117" t="s">
-        <v>140</v>
+        <v>201</v>
       </c>
       <c r="E117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F117" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>290</v>
+      <c r="A118" t="s">
+        <v>202</v>
       </c>
       <c r="D118" t="s">
-        <v>141</v>
+        <v>203</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -2835,11 +3057,11 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>278</v>
+      <c r="A119" t="s">
+        <v>204</v>
       </c>
       <c r="D119" t="s">
-        <v>142</v>
+        <v>205</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -2856,7 +3078,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>206</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -2867,10 +3089,10 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D121" t="s">
-        <v>144</v>
+        <v>207</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -2887,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -2904,7 +3126,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -2921,41 +3143,41 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>210</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125">
-        <v>79</v>
+      <c r="A125" t="s">
+        <v>211</v>
       </c>
       <c r="D125" t="s">
-        <v>148</v>
+        <v>212</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126">
-        <v>100</v>
+      <c r="A126" t="s">
+        <v>160</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F126" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2966,30 +3188,30 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128">
-        <v>129</v>
+      <c r="A128" t="s">
+        <v>61</v>
       </c>
       <c r="D128" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="E128" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F128" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>77</v>
       </c>
@@ -2997,16 +3219,16 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>152</v>
+        <v>216</v>
       </c>
       <c r="E129" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F129" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>153</v>
       </c>
@@ -3014,16 +3236,16 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>153</v>
+        <v>217</v>
       </c>
       <c r="E130" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F130" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>150</v>
       </c>
@@ -3031,35 +3253,35 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>154</v>
+        <v>218</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F131" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132">
-        <v>240</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>219</v>
       </c>
       <c r="D132" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F132" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133">
-        <v>567</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>28</v>
       </c>
       <c r="D133" t="s">
-        <v>156</v>
+        <v>221</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -3068,12 +3290,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>623</v>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>222</v>
       </c>
       <c r="D134" t="s">
-        <v>157</v>
+        <v>223</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -3082,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>306</v>
       </c>
@@ -3090,16 +3312,16 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>158</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>338</v>
       </c>
@@ -3107,7 +3329,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -3116,7 +3338,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>352</v>
       </c>
@@ -3124,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>161</v>
+        <v>227</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -3133,7 +3355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>376</v>
       </c>
@@ -3141,7 +3363,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -3150,12 +3372,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>378</v>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>229</v>
       </c>
       <c r="D139" t="s">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -3164,12 +3386,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>398</v>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>231</v>
       </c>
       <c r="D140" t="s">
-        <v>164</v>
+        <v>232</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -3178,7 +3400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>410</v>
       </c>
@@ -3186,7 +3408,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>165</v>
+        <v>233</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -3194,123 +3416,127 @@
       <c r="F141" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="B142">
         <v>20</v>
       </c>
+      <c r="C142" t="s">
+        <v>288</v>
+      </c>
       <c r="D142" t="s">
-        <v>166</v>
+        <v>234</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>200</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>235</v>
       </c>
       <c r="D143" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="E143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F143" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144">
-        <v>228</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>237</v>
       </c>
       <c r="D144" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="E144" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F144" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D145" t="s">
-        <v>170</v>
+        <v>239</v>
       </c>
       <c r="E145" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F145" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D146" t="s">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="E146" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F146" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>206</v>
+      <c r="A147">
+        <v>134</v>
       </c>
       <c r="B147">
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="E147" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F147" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>116</v>
+      <c r="A148" t="s">
+        <v>242</v>
       </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="E148" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F148" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>94</v>
+      <c r="A149" t="s">
+        <v>119</v>
       </c>
       <c r="D149" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F149" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3321,13 +3547,13 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>175</v>
+        <v>245</v>
       </c>
       <c r="E150" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F150" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3338,41 +3564,41 @@
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="E151" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F151" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>79</v>
+      <c r="A152" t="s">
+        <v>211</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="E152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F152" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>78</v>
+      <c r="A153" t="s">
+        <v>248</v>
       </c>
       <c r="D153" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="E153" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F153" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3383,41 +3609,41 @@
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="E154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F154" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>74</v>
+      <c r="A155" t="s">
+        <v>251</v>
       </c>
       <c r="D155" t="s">
-        <v>180</v>
+        <v>252</v>
       </c>
       <c r="E155" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>72</v>
+      <c r="A156" t="s">
+        <v>253</v>
       </c>
       <c r="D156" t="s">
-        <v>181</v>
+        <v>254</v>
       </c>
       <c r="E156" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F156" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3428,13 +3654,13 @@
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>182</v>
+        <v>255</v>
       </c>
       <c r="E157" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F157" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3445,27 +3671,27 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>183</v>
+        <v>256</v>
       </c>
       <c r="E158" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F158" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="D159" t="s">
-        <v>184</v>
+        <v>257</v>
       </c>
       <c r="E159" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F159" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,27 +3702,27 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="E160" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F160" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>130</v>
+      <c r="A161" t="s">
+        <v>259</v>
       </c>
       <c r="D161" t="s">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="E161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3507,13 +3733,13 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F162" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3524,41 +3750,41 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>188</v>
+        <v>262</v>
       </c>
       <c r="E163" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164">
-        <v>100</v>
+      <c r="A164" t="s">
+        <v>160</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>116</v>
+      <c r="A165" t="s">
+        <v>242</v>
       </c>
       <c r="D165" t="s">
-        <v>191</v>
+        <v>265</v>
       </c>
       <c r="E165" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3569,27 +3795,27 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>192</v>
+        <v>266</v>
       </c>
       <c r="E166" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167">
-        <v>88</v>
+      <c r="A167" t="s">
+        <v>267</v>
       </c>
       <c r="D167" t="s">
-        <v>193</v>
+        <v>268</v>
       </c>
       <c r="E167" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3600,38 +3826,38 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>194</v>
+        <v>269</v>
       </c>
       <c r="E168" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169">
-        <v>77</v>
+      <c r="A169" t="s">
+        <v>270</v>
       </c>
       <c r="D169" t="s">
-        <v>195</v>
+        <v>271</v>
       </c>
       <c r="E169" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>206</v>
+        <v>71</v>
       </c>
       <c r="D170" t="s">
-        <v>196</v>
+        <v>272</v>
       </c>
       <c r="E170" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
@@ -3639,44 +3865,44 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D171" t="s">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="E171" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D172" t="s">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="E172" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F172" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173">
-        <v>101</v>
+      <c r="A173" t="s">
+        <v>275</v>
       </c>
       <c r="D173" t="s">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F173" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3687,41 +3913,41 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>200</v>
+        <v>277</v>
       </c>
       <c r="E174" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F174" t="s">
-        <v>189</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175">
-        <v>27</v>
+      <c r="A175" t="s">
+        <v>278</v>
       </c>
       <c r="D175" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="E175" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F175" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176">
-        <v>51</v>
+      <c r="A176" t="s">
+        <v>280</v>
       </c>
       <c r="D176" t="s">
-        <v>202</v>
+        <v>281</v>
       </c>
       <c r="E176" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F176" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -3732,58 +3958,46 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="E177" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F177" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D178" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="E178" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F178" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="D179" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="E179" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F179" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J179" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C8799D-9148-4F23-BC45-58DEC00530D8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92EC34B-B1EF-4A9E-9AD7-A9E197383A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22357044-EB8B-4B4B-BD28-87852F8E1785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="306">
   <si>
     <t>NUMERO</t>
   </si>
@@ -61,6 +61,18 @@
     <t>88058720</t>
   </si>
   <si>
+    <t>Rua Tico-Tico</t>
+  </si>
+  <si>
+    <t>Ingleses do Rio Vermelho</t>
+  </si>
+  <si>
+    <t>Florianópolis</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
     <t>-48.37878205,-27.45164422,0</t>
   </si>
   <si>
@@ -79,6 +91,9 @@
     <t>-48.37862883,-27.45092956,0</t>
   </si>
   <si>
+    <t>Estrada Vereador Onildo Lemos</t>
+  </si>
+  <si>
     <t>-48.37882329,-27.45195245,0</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>-48.37842001073692,-27.44981489608158,0</t>
   </si>
   <si>
+    <t xml:space="preserve">S/N </t>
+  </si>
+  <si>
     <t>-48.37830293999999,-27.44965228,0</t>
   </si>
   <si>
@@ -163,6 +181,9 @@
     <t>88058723</t>
   </si>
   <si>
+    <t>Rua Costão Norte</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -178,6 +199,9 @@
     <t>88058722</t>
   </si>
   <si>
+    <t>Rua do Pingüim</t>
+  </si>
+  <si>
     <t>-48.37811049,-27.448203,0</t>
   </si>
   <si>
@@ -241,6 +265,9 @@
     <t>-48.37686762,-27.44856004,0</t>
   </si>
   <si>
+    <t>128 2</t>
+  </si>
+  <si>
     <t>-48.37717809,-27.44850529,0</t>
   </si>
   <si>
@@ -331,6 +358,9 @@
     <t>88058457</t>
   </si>
   <si>
+    <t>Servidão Gesso</t>
+  </si>
+  <si>
     <t>164</t>
   </si>
   <si>
@@ -367,12 +397,18 @@
     <t>88058725</t>
   </si>
   <si>
+    <t>Rua Vitor Manoel Ferreira</t>
+  </si>
+  <si>
     <t>-48.37769005,-27.45028542,0</t>
   </si>
   <si>
     <t>88058733</t>
   </si>
   <si>
+    <t>Servidão João Manoel Vieira</t>
+  </si>
+  <si>
     <t>227</t>
   </si>
   <si>
@@ -418,6 +454,9 @@
     <t>-48.37927825999999,-27.45266264,0</t>
   </si>
   <si>
+    <t xml:space="preserve">Sn </t>
+  </si>
+  <si>
     <t>-48.37932419,-27.45282568,0</t>
   </si>
   <si>
@@ -472,12 +511,21 @@
     <t>88058746</t>
   </si>
   <si>
+    <t>Servidão Abelardo Paulo da Silva</t>
+  </si>
+  <si>
     <t>-48.37761462160369,-27.45149916104785,0</t>
   </si>
   <si>
     <t>88058000</t>
   </si>
   <si>
+    <t>Rodovia Armando Calil Bulos</t>
+  </si>
+  <si>
+    <t>Vargem Grande</t>
+  </si>
+  <si>
     <t>68</t>
   </si>
   <si>
@@ -490,6 +538,9 @@
     <t>88058739</t>
   </si>
   <si>
+    <t>Servidão Maria da Silva Lapa</t>
+  </si>
+  <si>
     <t>-48.37715764000001,-27.45179655,0</t>
   </si>
   <si>
@@ -655,6 +706,9 @@
     <t>-48.37752242,-27.44954755,0</t>
   </si>
   <si>
+    <t>Servidão do Jornalista</t>
+  </si>
+  <si>
     <t>79</t>
   </si>
   <si>
@@ -700,6 +754,9 @@
     <t>88058741</t>
   </si>
   <si>
+    <t>Servidão Lídio Manoel Ramos</t>
+  </si>
+  <si>
     <t>-48.37888163,-27.45091528,0</t>
   </si>
   <si>
@@ -724,6 +781,9 @@
     <t>-48.37907441000001,-27.4517061,0</t>
   </si>
   <si>
+    <t>sim</t>
+  </si>
+  <si>
     <t>-48.37822381,-27.45291523,0</t>
   </si>
   <si>
@@ -814,6 +874,9 @@
     <t>88058732</t>
   </si>
   <si>
+    <t>Servidão Andorinhas do Costão</t>
+  </si>
+  <si>
     <t>-48.37666411,-27.44950887,0</t>
   </si>
   <si>
@@ -875,25 +938,13 @@
   </si>
   <si>
     <t>-48.37708834595168,-27.45045706804933,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S/N </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sn </t>
-  </si>
-  <si>
-    <t>128 2</t>
-  </si>
-  <si>
-    <t>sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -905,12 +956,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -961,7 +1006,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1267,10 +1312,23 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I169" sqref="I169"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1320,6 +1378,18 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1329,13 +1399,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1346,7 +1428,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1354,19 +1436,43 @@
       <c r="F4" t="s">
         <v>12</v>
       </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1377,13 +1483,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1394,13 +1512,25 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1411,13 +1541,25 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1428,13 +1570,25 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1445,7 +1599,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -1453,33 +1607,69 @@
       <c r="F10" t="s">
         <v>12</v>
       </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
       </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
         <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1490,7 +1680,7 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
@@ -1498,19 +1688,43 @@
       <c r="F13" t="s">
         <v>12</v>
       </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
         <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1521,13 +1735,25 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1538,7 +1764,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -1546,8 +1772,20 @@
       <c r="F16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>319</v>
       </c>
@@ -1555,7 +1793,7 @@
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
@@ -1563,8 +1801,20 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>299</v>
       </c>
@@ -1572,7 +1822,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>11</v>
@@ -1580,13 +1830,25 @@
       <c r="F18" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>11</v>
@@ -1594,13 +1856,25 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
         <v>11</v>
@@ -1608,8 +1882,20 @@
       <c r="F20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>227</v>
       </c>
@@ -1617,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>11</v>
@@ -1625,13 +1911,25 @@
       <c r="F21" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
         <v>11</v>
@@ -1639,8 +1937,20 @@
       <c r="F22" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>174</v>
       </c>
@@ -1648,7 +1958,7 @@
         <v>2</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
@@ -1656,8 +1966,20 @@
       <c r="F23" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>215</v>
       </c>
@@ -1665,7 +1987,7 @@
         <v>2</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1673,8 +1995,20 @@
       <c r="F24" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>195</v>
       </c>
@@ -1682,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1690,25 +2024,49 @@
       <c r="F25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -1716,21 +2074,33 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -1738,8 +2108,20 @@
       <c r="F28" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>555</v>
       </c>
@@ -1747,16 +2129,28 @@
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>555</v>
       </c>
@@ -1764,16 +2158,28 @@
         <v>2</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>35</v>
       </c>
@@ -1781,114 +2187,210 @@
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="s">
         <v>58</v>
       </c>
-      <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
         <v>59</v>
       </c>
-      <c r="D35" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" t="s">
-        <v>24</v>
-      </c>
-      <c r="F35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
+      <c r="H36" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>206</v>
       </c>
@@ -1896,16 +2398,28 @@
         <v>2</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G39" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>194</v>
       </c>
@@ -1913,61 +2427,109 @@
         <v>2</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>15</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D41" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>2</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G43" t="s">
+        <v>59</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>15</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>115</v>
       </c>
@@ -1975,16 +2537,28 @@
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G44" t="s">
+        <v>59</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>94</v>
       </c>
@@ -1992,44 +2566,80 @@
         <v>2</v>
       </c>
       <c r="D45" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>15</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>18</v>
       </c>
@@ -2037,7 +2647,7 @@
         <v>3</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E48" t="s">
         <v>11</v>
@@ -2045,22 +2655,46 @@
       <c r="F48" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>15</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E49" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>15</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>135</v>
       </c>
@@ -2068,30 +2702,54 @@
         <v>2</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>15</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G51" t="s">
+        <v>59</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>15</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>75</v>
       </c>
@@ -2099,212 +2757,392 @@
         <v>2</v>
       </c>
       <c r="D52" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>15</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G55" t="s">
+        <v>59</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G56" t="s">
+        <v>59</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G57" t="s">
+        <v>59</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D58" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G58" t="s">
+        <v>59</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G59" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>15</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G60" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F61" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>15</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F62" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>15</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G63" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F64" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G64" t="s">
+        <v>53</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>15</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D65" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G65" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G66" t="s">
+        <v>53</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>15</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>200</v>
       </c>
@@ -2312,49 +3150,85 @@
         <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G67" t="s">
+        <v>125</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>15</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F68" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G68" t="s">
+        <v>128</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D69" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" t="s">
+        <v>23</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2362,13 +3236,25 @@
       <c r="F70" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="E71" t="s">
         <v>11</v>
@@ -2376,13 +3262,25 @@
       <c r="F71" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D72" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
         <v>11</v>
@@ -2390,13 +3288,25 @@
       <c r="F72" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" t="s">
+        <v>13</v>
+      </c>
+      <c r="H72" t="s">
+        <v>14</v>
+      </c>
+      <c r="I72" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
@@ -2404,13 +3314,25 @@
       <c r="F73" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" t="s">
+        <v>13</v>
+      </c>
+      <c r="H73" t="s">
+        <v>14</v>
+      </c>
+      <c r="I73" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D74" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
         <v>11</v>
@@ -2418,13 +3340,25 @@
       <c r="F74" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" t="s">
+        <v>14</v>
+      </c>
+      <c r="I74" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D75" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="E75" t="s">
         <v>11</v>
@@ -2432,8 +3366,20 @@
       <c r="F75" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G75" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I75" t="s">
+        <v>15</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>510</v>
       </c>
@@ -2441,7 +3387,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E76" t="s">
         <v>11</v>
@@ -2449,13 +3395,25 @@
       <c r="F76" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="D77" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E77" t="s">
         <v>11</v>
@@ -2463,13 +3421,25 @@
       <c r="F77" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="E78" t="s">
         <v>11</v>
@@ -2477,13 +3447,25 @@
       <c r="F78" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" t="s">
+        <v>13</v>
+      </c>
+      <c r="H78" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>15</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="D79" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="E79" t="s">
         <v>11</v>
@@ -2491,13 +3473,25 @@
       <c r="F79" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
+      <c r="H79" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
@@ -2505,13 +3499,25 @@
       <c r="F80" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" t="s">
+        <v>13</v>
+      </c>
+      <c r="H80" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D81" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
         <v>11</v>
@@ -2519,13 +3525,25 @@
       <c r="F81" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="H81" t="s">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D82" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="E82" t="s">
         <v>11</v>
@@ -2533,36 +3551,72 @@
       <c r="F82" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" t="s">
+        <v>13</v>
+      </c>
+      <c r="H82" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D83" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F83" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G83" t="s">
+        <v>128</v>
+      </c>
+      <c r="H83" t="s">
+        <v>14</v>
+      </c>
+      <c r="I83" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D84" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F84" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" t="s">
+        <v>13</v>
+      </c>
+      <c r="H84" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>15</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>115</v>
       </c>
@@ -2570,30 +3624,54 @@
         <v>6</v>
       </c>
       <c r="D85" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F85" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
+      <c r="H85" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>15</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="D86" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G86" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -2601,226 +3679,418 @@
         <v>6</v>
       </c>
       <c r="D87" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F87" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G87" t="s">
+        <v>166</v>
+      </c>
+      <c r="H87" t="s">
+        <v>167</v>
+      </c>
+      <c r="I87" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="D88" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G88" t="s">
+        <v>166</v>
+      </c>
+      <c r="H88" t="s">
+        <v>167</v>
+      </c>
+      <c r="I88" t="s">
+        <v>15</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F89" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G89" t="s">
+        <v>172</v>
+      </c>
+      <c r="H89" t="s">
+        <v>14</v>
+      </c>
+      <c r="I89" t="s">
+        <v>15</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D90" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G90" t="s">
+        <v>172</v>
+      </c>
+      <c r="H90" t="s">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>15</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="D91" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G91" t="s">
+        <v>166</v>
+      </c>
+      <c r="H91" t="s">
+        <v>167</v>
+      </c>
+      <c r="I91" t="s">
+        <v>15</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G92" t="s">
+        <v>166</v>
+      </c>
+      <c r="H92" t="s">
+        <v>167</v>
+      </c>
+      <c r="I92" t="s">
+        <v>15</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D93" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F93" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G93" t="s">
+        <v>172</v>
+      </c>
+      <c r="H93" t="s">
+        <v>14</v>
+      </c>
+      <c r="I93" t="s">
+        <v>15</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="D94" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F94" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
+      <c r="H94" t="s">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>15</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="D95" t="s">
+        <v>182</v>
+      </c>
+      <c r="E95" t="s">
+        <v>29</v>
+      </c>
+      <c r="F95" t="s">
+        <v>171</v>
+      </c>
+      <c r="G95" t="s">
+        <v>172</v>
+      </c>
+      <c r="H95" t="s">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>15</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" t="s">
+        <v>184</v>
+      </c>
+      <c r="E96" t="s">
+        <v>29</v>
+      </c>
+      <c r="F96" t="s">
+        <v>171</v>
+      </c>
+      <c r="G96" t="s">
+        <v>172</v>
+      </c>
+      <c r="H96" t="s">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>15</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>157</v>
+      </c>
+      <c r="D97" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" t="s">
+        <v>29</v>
+      </c>
+      <c r="F97" t="s">
         <v>165</v>
       </c>
-      <c r="E95" t="s">
-        <v>24</v>
-      </c>
-      <c r="F95" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="G97" t="s">
         <v>166</v>
       </c>
-      <c r="D96" t="s">
+      <c r="H97" t="s">
         <v>167</v>
       </c>
-      <c r="E96" t="s">
-        <v>24</v>
-      </c>
-      <c r="F96" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>144</v>
-      </c>
-      <c r="D97" t="s">
-        <v>168</v>
-      </c>
-      <c r="E97" t="s">
-        <v>24</v>
-      </c>
-      <c r="F97" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>15</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D98" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G98" t="s">
+        <v>166</v>
+      </c>
+      <c r="H98" t="s">
+        <v>167</v>
+      </c>
+      <c r="I98" t="s">
+        <v>15</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F99" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G99" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" t="s">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>15</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D100" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F100" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" t="s">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>15</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D101" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F101" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G101" t="s">
+        <v>166</v>
+      </c>
+      <c r="H101" t="s">
+        <v>167</v>
+      </c>
+      <c r="I101" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="D102" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F102" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G102" t="s">
+        <v>166</v>
+      </c>
+      <c r="H102" t="s">
+        <v>167</v>
+      </c>
+      <c r="I102" t="s">
+        <v>15</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>71</v>
       </c>
@@ -2828,44 +4098,80 @@
         <v>3</v>
       </c>
       <c r="D103" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="E103" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F103" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G103" t="s">
+        <v>128</v>
+      </c>
+      <c r="H103" t="s">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>15</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="D104" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="G104" t="s">
+        <v>128</v>
+      </c>
+      <c r="H104" t="s">
+        <v>14</v>
+      </c>
+      <c r="I104" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="D105" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F105" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105" t="s">
+        <v>23</v>
+      </c>
+      <c r="H105" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>85</v>
       </c>
@@ -2873,30 +4179,54 @@
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G106" t="s">
+        <v>125</v>
+      </c>
+      <c r="H106" t="s">
+        <v>14</v>
+      </c>
+      <c r="I106" t="s">
+        <v>15</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="D107" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G107" t="s">
+        <v>166</v>
+      </c>
+      <c r="H107" t="s">
+        <v>167</v>
+      </c>
+      <c r="I107" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>133</v>
       </c>
@@ -2904,72 +4234,132 @@
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G108" t="s">
+        <v>125</v>
+      </c>
+      <c r="H108" t="s">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F109" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G109" t="s">
+        <v>125</v>
+      </c>
+      <c r="H109" t="s">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F110" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G110" t="s">
+        <v>125</v>
+      </c>
+      <c r="H110" t="s">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>15</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="D111" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G111" t="s">
+        <v>166</v>
+      </c>
+      <c r="H111" t="s">
+        <v>167</v>
+      </c>
+      <c r="I111" t="s">
+        <v>15</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D112" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F112" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G112" t="s">
+        <v>166</v>
+      </c>
+      <c r="H112" t="s">
+        <v>167</v>
+      </c>
+      <c r="I112" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>180</v>
       </c>
@@ -2977,77 +4367,137 @@
         <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G113" t="s">
+        <v>125</v>
+      </c>
+      <c r="H113" t="s">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="D114" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G114" t="s">
+        <v>125</v>
+      </c>
+      <c r="H114" t="s">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D115" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G115" t="s">
+        <v>59</v>
+      </c>
+      <c r="H115" t="s">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="D116" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F116" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G116" t="s">
+        <v>125</v>
+      </c>
+      <c r="H116" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="D117" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G117" t="s">
+        <v>125</v>
+      </c>
+      <c r="H117" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="D118" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="E118" t="s">
         <v>11</v>
@@ -3055,13 +4505,25 @@
       <c r="F118" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
+      <c r="H118" t="s">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="D119" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="E119" t="s">
         <v>11</v>
@@ -3069,8 +4531,20 @@
       <c r="F119" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G119" t="s">
+        <v>13</v>
+      </c>
+      <c r="H119" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" t="s">
+        <v>15</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>254</v>
       </c>
@@ -3078,7 +4552,7 @@
         <v>4</v>
       </c>
       <c r="D120" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E120" t="s">
         <v>11</v>
@@ -3086,13 +4560,25 @@
       <c r="F120" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" t="s">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>15</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="E121" t="s">
         <v>11</v>
@@ -3100,8 +4586,20 @@
       <c r="F121" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G121" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" t="s">
+        <v>14</v>
+      </c>
+      <c r="I121" t="s">
+        <v>15</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>216</v>
       </c>
@@ -3109,7 +4607,7 @@
         <v>4</v>
       </c>
       <c r="D122" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E122" t="s">
         <v>11</v>
@@ -3117,8 +4615,20 @@
       <c r="F122" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
+      <c r="H122" t="s">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>15</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>200</v>
       </c>
@@ -3126,7 +4636,7 @@
         <v>4</v>
       </c>
       <c r="D123" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="E123" t="s">
         <v>11</v>
@@ -3134,8 +4644,20 @@
       <c r="F123" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
+      <c r="H123" t="s">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>15</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>73</v>
       </c>
@@ -3143,44 +4665,80 @@
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F124" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G124" t="s">
+        <v>228</v>
+      </c>
+      <c r="H124" t="s">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>15</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F125" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>228</v>
+      </c>
+      <c r="H125" t="s">
+        <v>14</v>
+      </c>
+      <c r="I125" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D126" t="s">
-        <v>213</v>
+        <v>231</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>228</v>
+      </c>
+      <c r="H126" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>135</v>
       </c>
@@ -3188,30 +4746,54 @@
         <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
+        <v>228</v>
+      </c>
+      <c r="H127" t="s">
+        <v>14</v>
+      </c>
+      <c r="I127" t="s">
+        <v>15</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D128" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="E128" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F128" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>228</v>
+      </c>
+      <c r="H128" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>77</v>
       </c>
@@ -3219,16 +4801,28 @@
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F129" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>228</v>
+      </c>
+      <c r="H129" t="s">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>153</v>
       </c>
@@ -3236,16 +4830,28 @@
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G130" t="s">
+        <v>166</v>
+      </c>
+      <c r="H130" t="s">
+        <v>167</v>
+      </c>
+      <c r="I130" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>150</v>
       </c>
@@ -3253,35 +4859,59 @@
         <v>4</v>
       </c>
       <c r="D131" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F131" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G131" t="s">
+        <v>228</v>
+      </c>
+      <c r="H131" t="s">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D132" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F132" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G132" t="s">
+        <v>228</v>
+      </c>
+      <c r="H132" t="s">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="E133" t="s">
         <v>11</v>
@@ -3289,13 +4919,25 @@
       <c r="F133" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G133" t="s">
+        <v>13</v>
+      </c>
+      <c r="H133" t="s">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D134" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="E134" t="s">
         <v>11</v>
@@ -3303,8 +4945,20 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G134" t="s">
+        <v>23</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>306</v>
       </c>
@@ -3312,16 +4966,28 @@
         <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="E135" t="s">
         <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="G135" t="s">
+        <v>244</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>338</v>
       </c>
@@ -3329,7 +4995,7 @@
         <v>2</v>
       </c>
       <c r="D136" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="E136" t="s">
         <v>11</v>
@@ -3337,8 +5003,20 @@
       <c r="F136" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>352</v>
       </c>
@@ -3346,7 +5024,7 @@
         <v>2</v>
       </c>
       <c r="D137" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E137" t="s">
         <v>11</v>
@@ -3354,8 +5032,20 @@
       <c r="F137" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
+      <c r="H137" t="s">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>376</v>
       </c>
@@ -3363,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="D138" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="E138" t="s">
         <v>11</v>
@@ -3371,13 +5061,25 @@
       <c r="F138" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G138" t="s">
+        <v>13</v>
+      </c>
+      <c r="H138" t="s">
+        <v>14</v>
+      </c>
+      <c r="I138" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="D139" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="E139" t="s">
         <v>11</v>
@@ -3385,13 +5087,25 @@
       <c r="F139" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
+      <c r="H139" t="s">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D140" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E140" t="s">
         <v>11</v>
@@ -3399,8 +5113,20 @@
       <c r="F140" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G140" t="s">
+        <v>13</v>
+      </c>
+      <c r="H140" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" t="s">
+        <v>15</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>410</v>
       </c>
@@ -3408,7 +5134,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="E141" t="s">
         <v>11</v>
@@ -3416,20 +5142,31 @@
       <c r="F141" t="s">
         <v>12</v>
       </c>
-      <c r="G141" s="2"/>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H141" t="s">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>285</v>
+        <v>49</v>
       </c>
       <c r="B142">
         <v>20</v>
       </c>
       <c r="C142" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="D142" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="E142" t="s">
         <v>11</v>
@@ -3437,64 +5174,124 @@
       <c r="F142" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G142" t="s">
+        <v>13</v>
+      </c>
+      <c r="H142" t="s">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="D143" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G143" t="s">
+        <v>125</v>
+      </c>
+      <c r="H143" t="s">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>15</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="D144" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="E144" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F144" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="G144" t="s">
+        <v>166</v>
+      </c>
+      <c r="H144" t="s">
+        <v>167</v>
+      </c>
+      <c r="I144" t="s">
+        <v>15</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D145" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="E145" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F145" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G145" t="s">
+        <v>125</v>
+      </c>
+      <c r="H145" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D146" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E146" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F146" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G146" t="s">
+        <v>125</v>
+      </c>
+      <c r="H146" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>134</v>
       </c>
@@ -3502,44 +5299,80 @@
         <v>3</v>
       </c>
       <c r="D147" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E147" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F147" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G147" t="s">
+        <v>125</v>
+      </c>
+      <c r="H147" t="s">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="D148" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="E148" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G148" t="s">
+        <v>125</v>
+      </c>
+      <c r="H148" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D149" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F149" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G149" t="s">
+        <v>125</v>
+      </c>
+      <c r="H149" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>27</v>
       </c>
@@ -3547,16 +5380,28 @@
         <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E150" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="G150" t="s">
+        <v>172</v>
+      </c>
+      <c r="H150" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" t="s">
+        <v>15</v>
+      </c>
+      <c r="J150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>133</v>
       </c>
@@ -3564,44 +5409,80 @@
         <v>6</v>
       </c>
       <c r="D151" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="E151" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F151" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G151" t="s">
+        <v>125</v>
+      </c>
+      <c r="H151" t="s">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>15</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="D152" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="E152" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F152" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G152" t="s">
+        <v>228</v>
+      </c>
+      <c r="H152" t="s">
+        <v>14</v>
+      </c>
+      <c r="I152" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="D153" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="E153" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F153" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G153" t="s">
+        <v>228</v>
+      </c>
+      <c r="H153" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>76</v>
       </c>
@@ -3609,44 +5490,80 @@
         <v>3</v>
       </c>
       <c r="D154" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="E154" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F154" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G154" t="s">
+        <v>228</v>
+      </c>
+      <c r="H154" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" t="s">
+        <v>15</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D155" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="E155" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F155" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G155" t="s">
+        <v>228</v>
+      </c>
+      <c r="H155" t="s">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>15</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="D156" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="E156" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G156" t="s">
+        <v>228</v>
+      </c>
+      <c r="H156" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>34</v>
       </c>
@@ -3654,16 +5571,28 @@
         <v>6</v>
       </c>
       <c r="D157" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="E157" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F157" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s">
+        <v>228</v>
+      </c>
+      <c r="H157" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" t="s">
+        <v>15</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>230</v>
       </c>
@@ -3671,30 +5600,54 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F158" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G158" t="s">
+        <v>125</v>
+      </c>
+      <c r="H158" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="E159" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G159" t="s">
+        <v>125</v>
+      </c>
+      <c r="H159" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>127</v>
       </c>
@@ -3702,30 +5655,54 @@
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="E160" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F160" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G160" t="s">
+        <v>228</v>
+      </c>
+      <c r="H160" t="s">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D161" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="E161" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F161" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G161" t="s">
+        <v>228</v>
+      </c>
+      <c r="H161" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>132</v>
       </c>
@@ -3733,16 +5710,28 @@
         <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="E162" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F162" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="G162" t="s">
+        <v>228</v>
+      </c>
+      <c r="H162" t="s">
+        <v>14</v>
+      </c>
+      <c r="I162" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>59</v>
       </c>
@@ -3750,44 +5739,80 @@
         <v>2</v>
       </c>
       <c r="D163" t="s">
+        <v>282</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" t="s">
+        <v>283</v>
+      </c>
+      <c r="G163" t="s">
+        <v>284</v>
+      </c>
+      <c r="H163" t="s">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>177</v>
+      </c>
+      <c r="D164" t="s">
+        <v>285</v>
+      </c>
+      <c r="E164" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" t="s">
+        <v>283</v>
+      </c>
+      <c r="G164" t="s">
+        <v>284</v>
+      </c>
+      <c r="H164" t="s">
+        <v>14</v>
+      </c>
+      <c r="I164" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
         <v>262</v>
       </c>
-      <c r="E163" t="s">
-        <v>24</v>
-      </c>
-      <c r="F163" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>160</v>
-      </c>
-      <c r="D164" t="s">
-        <v>264</v>
-      </c>
-      <c r="E164" t="s">
-        <v>24</v>
-      </c>
-      <c r="F164" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>242</v>
-      </c>
       <c r="D165" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="E165" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F165" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G165" t="s">
+        <v>284</v>
+      </c>
+      <c r="H165" t="s">
+        <v>14</v>
+      </c>
+      <c r="I165" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>90</v>
       </c>
@@ -3795,30 +5820,54 @@
         <v>6</v>
       </c>
       <c r="D166" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="E166" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F166" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G166" t="s">
+        <v>284</v>
+      </c>
+      <c r="H166" t="s">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>15</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="D167" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="E167" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F167" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G167" t="s">
+        <v>284</v>
+      </c>
+      <c r="H167" t="s">
+        <v>14</v>
+      </c>
+      <c r="I167" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>74</v>
       </c>
@@ -3826,86 +5875,158 @@
         <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F168" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G168" t="s">
+        <v>53</v>
+      </c>
+      <c r="H168" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="D169" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="E169" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G169" t="s">
+        <v>53</v>
+      </c>
+      <c r="H169" t="s">
+        <v>14</v>
+      </c>
+      <c r="I169" t="s">
+        <v>15</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D170" t="s">
-        <v>272</v>
+        <v>293</v>
       </c>
       <c r="E170" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F170" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G170" t="s">
+        <v>23</v>
+      </c>
+      <c r="H170" t="s">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>15</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D171" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="E171" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G171" t="s">
+        <v>53</v>
+      </c>
+      <c r="H171" t="s">
+        <v>14</v>
+      </c>
+      <c r="I171" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D172" t="s">
-        <v>274</v>
+        <v>295</v>
       </c>
       <c r="E172" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F172" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G172" t="s">
+        <v>284</v>
+      </c>
+      <c r="H172" t="s">
+        <v>14</v>
+      </c>
+      <c r="I172" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>275</v>
+        <v>296</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="E173" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F173" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G173" t="s">
+        <v>53</v>
+      </c>
+      <c r="H173" t="s">
+        <v>14</v>
+      </c>
+      <c r="I173" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>115</v>
       </c>
@@ -3913,44 +6034,80 @@
         <v>8</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>298</v>
       </c>
       <c r="E174" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F174" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G174" t="s">
+        <v>284</v>
+      </c>
+      <c r="H174" t="s">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>278</v>
+        <v>299</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="E175" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F175" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G175" t="s">
+        <v>125</v>
+      </c>
+      <c r="H175" t="s">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>280</v>
+        <v>301</v>
       </c>
       <c r="D176" t="s">
-        <v>281</v>
+        <v>302</v>
       </c>
       <c r="E176" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F176" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G176" t="s">
+        <v>125</v>
+      </c>
+      <c r="H176" t="s">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>61</v>
       </c>
@@ -3958,46 +6115,81 @@
         <v>2</v>
       </c>
       <c r="D177" t="s">
-        <v>282</v>
+        <v>303</v>
       </c>
       <c r="E177" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F177" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G177" t="s">
+        <v>125</v>
+      </c>
+      <c r="H177" t="s">
+        <v>14</v>
+      </c>
+      <c r="I177" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D178" t="s">
-        <v>283</v>
+        <v>304</v>
       </c>
       <c r="E178" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F178" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="G178" t="s">
+        <v>125</v>
+      </c>
+      <c r="H178" t="s">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>284</v>
+        <v>305</v>
       </c>
       <c r="E179" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F179" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="G179" t="s">
+        <v>228</v>
+      </c>
+      <c r="H179" t="s">
+        <v>14</v>
+      </c>
+      <c r="I179" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Arquivos xlsx/survey.xlsx
+++ b/Arquivos xlsx/survey.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hix_x\OneDrive - OBA GG\Documentos\Tux.exe\Arquivos xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\klayton.dias\Desktop\Tux.exe\Arquivos xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10A20D0-C7D8-49F3-95CD-6C07703C0315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10560" windowHeight="6315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,51 +19,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>NUMERO</t>
-  </si>
-  <si>
-    <t>QUANTIDADE</t>
-  </si>
-  <si>
-    <t>PREDIO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>numero/capacidade</t>
+  </si>
+  <si>
+    <t>quantidade/tr</t>
+  </si>
+  <si>
+    <t>predio/none</t>
   </si>
   <si>
     <t>coordenadas</t>
   </si>
   <si>
-    <t>CEP GEOPY</t>
-  </si>
-  <si>
     <t>CEP GOOGLE MAPS</t>
   </si>
   <si>
-    <t>LOGRADOURO</t>
-  </si>
-  <si>
-    <t>BAIRRO</t>
-  </si>
-  <si>
-    <t>CIDADE</t>
-  </si>
-  <si>
-    <t>UF</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>-48.38292204,-27.46079003,0</t>
-  </si>
-  <si>
-    <t>88058700</t>
+    <t xml:space="preserve">-48.3836871, -27.4616668 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">-48.3838514, -27.4616574 </t>
+  </si>
+  <si>
+    <t>sim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,7 +417,7 @@
     <col min="4" max="4" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -445,37 +430,46 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>247</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="F2">
+        <v>88058700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>275</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
+      <c r="F3">
+        <v>88058700</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>